--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4" t="n">
         <v>2</v>
@@ -2881,7 +2881,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13" t="n">
         <v>2</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR17" t="n">
         <v>2.89</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.57</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.86</v>
@@ -8767,7 +8767,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR45" t="n">
         <v>2.18</v>
@@ -10729,7 +10729,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR47" t="n">
         <v>2.48</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.13</v>
@@ -12037,7 +12037,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.43</v>
@@ -12255,7 +12255,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR54" t="n">
         <v>1.15</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.57</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.5</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.11</v>
@@ -13563,7 +13563,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -13999,7 +13999,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR62" t="n">
         <v>1.21</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.89</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ64" t="n">
         <v>2</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.57</v>
@@ -15743,7 +15743,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -16615,7 +16615,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -17269,7 +17269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR77" t="n">
         <v>1.2</v>
@@ -17702,7 +17702,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.11</v>
@@ -18359,7 +18359,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -18795,7 +18795,7 @@
         <v>3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR84" t="n">
         <v>2.45</v>
@@ -19228,10 +19228,10 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR86" t="n">
         <v>1.7</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
         <v>2</v>
@@ -20321,7 +20321,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -20536,7 +20536,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.25</v>
@@ -20975,7 +20975,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21626,7 +21626,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.89</v>
@@ -22716,10 +22716,10 @@
         <v>0.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR102" t="n">
         <v>1</v>
@@ -23152,7 +23152,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.25</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -23591,7 +23591,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR106" t="n">
         <v>2.3</v>
@@ -24027,7 +24027,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR108" t="n">
         <v>1.45</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR109" t="n">
         <v>2.54</v>
@@ -24681,7 +24681,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR111" t="n">
         <v>1.04</v>
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR114" t="n">
         <v>1.41</v>
@@ -25550,7 +25550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.89</v>
@@ -26422,7 +26422,7 @@
         <v>1.5</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.13</v>
@@ -28387,7 +28387,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -28602,7 +28602,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.13</v>
@@ -29256,10 +29256,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR132" t="n">
         <v>1.06</v>
@@ -29474,10 +29474,10 @@
         <v>0.14</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR133" t="n">
         <v>1.17</v>
@@ -30128,7 +30128,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.57</v>
@@ -30346,7 +30346,7 @@
         <v>1.67</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.86</v>
@@ -30785,7 +30785,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR139" t="n">
         <v>1.41</v>
@@ -31221,7 +31221,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR141" t="n">
         <v>1.65</v>
@@ -32965,7 +32965,7 @@
         <v>2</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR149" t="n">
         <v>1.61</v>
@@ -33913,6 +33913,1096 @@
       </c>
       <c r="BP153" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8200438</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>46003.70833333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['76', '84']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S154" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8200567</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>46004.41666666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['17', '74']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S155" t="n">
+        <v>8</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U155" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X155" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8200763</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>46004.51041666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['5', '82', '89']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8200566</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>46004.60416666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['70', '86']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>8</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U157" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="V157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8200432</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>46004.70833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S158" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X158" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.13</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.38</v>
@@ -7895,7 +7895,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.36</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.86</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.35</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78" t="n">
         <v>2</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5</v>
@@ -20757,7 +20757,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.15</v>
@@ -25332,7 +25332,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.22</v>
@@ -25989,7 +25989,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -30131,7 +30131,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR136" t="n">
         <v>1.95</v>
@@ -30564,7 +30564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.57</v>
@@ -35003,6 +35003,224 @@
       </c>
       <c r="BP158" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8200443</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>46005.41666666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>4</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['4', '22', '51', '89']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S159" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X159" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.89</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.13</v>
@@ -4625,7 +4625,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.57</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.13</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.86</v>
@@ -7023,7 +7023,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR30" t="n">
         <v>1.65</v>
@@ -8113,7 +8113,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR35" t="n">
         <v>1.77</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.75</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.25</v>
@@ -10947,7 +10947,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -12473,7 +12473,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR55" t="n">
         <v>0.84</v>
@@ -14435,7 +14435,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.74</v>
@@ -14871,7 +14871,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR66" t="n">
         <v>2.6</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.38</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.13</v>
@@ -19449,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19664,7 +19664,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.75</v>
@@ -20103,7 +20103,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR90" t="n">
         <v>1.1</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.38</v>
@@ -23373,7 +23373,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR105" t="n">
         <v>1.56</v>
@@ -24024,7 +24024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.57</v>
@@ -26207,7 +26207,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR118" t="n">
         <v>1.74</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ121" t="n">
         <v>2</v>
@@ -27294,7 +27294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123" t="n">
         <v>2</v>
@@ -27515,7 +27515,7 @@
         <v>3</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR124" t="n">
         <v>2.37</v>
@@ -28823,7 +28823,7 @@
         <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29913,7 +29913,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR135" t="n">
         <v>1.12</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.57</v>
@@ -31003,7 +31003,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ140" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.2</v>
@@ -31657,7 +31657,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR143" t="n">
         <v>1.62</v>
@@ -32308,7 +32308,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.75</v>
@@ -35221,6 +35221,442 @@
       </c>
       <c r="BP159" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8200568</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>46005.51041666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['48', '55']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8200569</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>46005.70833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['24', '76']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S161" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U161" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X161" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -852,6 +852,9 @@
   <si>
     <t>['24', '76']</t>
   </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2167,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3818,7 +3821,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR13">
         <v>0.5</v>
@@ -4227,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -5051,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ19">
         <v>2.1</v>
@@ -6081,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6493,10 +6496,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR26">
         <v>0.79</v>
@@ -6908,7 +6911,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR28">
         <v>2.14</v>
@@ -9171,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9792,7 +9795,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR42">
         <v>1.24</v>
@@ -9998,7 +10001,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR43">
         <v>1.29</v>
@@ -11025,7 +11028,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11234,7 +11237,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR49">
         <v>1.46</v>
@@ -12467,7 +12470,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ55">
         <v>2.1</v>
@@ -13088,7 +13091,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR58">
         <v>2</v>
@@ -13703,7 +13706,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -15148,7 +15151,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR68">
         <v>1.48</v>
@@ -15354,7 +15357,7 @@
         <v>3</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR69">
         <v>2.26</v>
@@ -15763,7 +15766,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -16175,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ73">
         <v>0.89</v>
@@ -16590,7 +16593,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR75">
         <v>1.56</v>
@@ -18029,7 +18032,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ82">
         <v>1.57</v>
@@ -18238,7 +18241,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR83">
         <v>1.42</v>
@@ -19268,7 +19271,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ88">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR88">
         <v>1.73</v>
@@ -19471,7 +19474,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ89">
         <v>1.11</v>
@@ -20913,7 +20916,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96">
         <v>1.86</v>
@@ -21740,7 +21743,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR100">
         <v>1.24</v>
@@ -23179,10 +23182,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR107">
         <v>1.15</v>
@@ -23800,7 +23803,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ110">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR110">
         <v>1.64</v>
@@ -24003,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ111">
         <v>0.22</v>
@@ -24212,7 +24215,7 @@
         <v>2</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -25857,7 +25860,7 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -26269,7 +26272,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ122">
         <v>0.89</v>
@@ -26478,7 +26481,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR123">
         <v>1.44</v>
@@ -26890,7 +26893,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27096,7 +27099,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR126">
         <v>2.01</v>
@@ -27299,7 +27302,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ127">
         <v>1.11</v>
@@ -28947,7 +28950,7 @@
         <v>0.67</v>
       </c>
       <c r="AP135">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ135">
         <v>0.88</v>
@@ -30801,10 +30804,10 @@
         <v>0.43</v>
       </c>
       <c r="AP144">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR144">
         <v>1.02</v>
@@ -31216,7 +31219,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ146">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -32037,7 +32040,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ150">
         <v>1.25</v>
@@ -32452,7 +32455,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ152">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR152">
         <v>2.38</v>
@@ -34588,6 +34591,624 @@
       </c>
       <c r="BP162">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>8200579</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>46010.70833333334</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163" t="s">
+        <v>72</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>115</v>
+      </c>
+      <c r="P163" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q163">
+        <v>2.7</v>
+      </c>
+      <c r="R163">
+        <v>2.04</v>
+      </c>
+      <c r="S163">
+        <v>4.6</v>
+      </c>
+      <c r="T163">
+        <v>1.44</v>
+      </c>
+      <c r="U163">
+        <v>2.45</v>
+      </c>
+      <c r="V163">
+        <v>3.2</v>
+      </c>
+      <c r="W163">
+        <v>1.3</v>
+      </c>
+      <c r="X163">
+        <v>8</v>
+      </c>
+      <c r="Y163">
+        <v>1.02</v>
+      </c>
+      <c r="Z163">
+        <v>1.98</v>
+      </c>
+      <c r="AA163">
+        <v>3.25</v>
+      </c>
+      <c r="AB163">
+        <v>4.2</v>
+      </c>
+      <c r="AC163">
+        <v>1.08</v>
+      </c>
+      <c r="AD163">
+        <v>6.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.48</v>
+      </c>
+      <c r="AF163">
+        <v>2.77</v>
+      </c>
+      <c r="AG163">
+        <v>2.5</v>
+      </c>
+      <c r="AH163">
+        <v>1.53</v>
+      </c>
+      <c r="AI163">
+        <v>2.19</v>
+      </c>
+      <c r="AJ163">
+        <v>1.71</v>
+      </c>
+      <c r="AK163">
+        <v>1.33</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.8</v>
+      </c>
+      <c r="AN163">
+        <v>1.5</v>
+      </c>
+      <c r="AO163">
+        <v>0.5</v>
+      </c>
+      <c r="AP163">
+        <v>1.44</v>
+      </c>
+      <c r="AQ163">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR163">
+        <v>1.43</v>
+      </c>
+      <c r="AS163">
+        <v>1.28</v>
+      </c>
+      <c r="AT163">
+        <v>2.71</v>
+      </c>
+      <c r="AU163">
+        <v>2</v>
+      </c>
+      <c r="AV163">
+        <v>2</v>
+      </c>
+      <c r="AW163">
+        <v>15</v>
+      </c>
+      <c r="AX163">
+        <v>2</v>
+      </c>
+      <c r="AY163">
+        <v>17</v>
+      </c>
+      <c r="AZ163">
+        <v>4</v>
+      </c>
+      <c r="BA163">
+        <v>12</v>
+      </c>
+      <c r="BB163">
+        <v>3</v>
+      </c>
+      <c r="BC163">
+        <v>15</v>
+      </c>
+      <c r="BD163">
+        <v>1.42</v>
+      </c>
+      <c r="BE163">
+        <v>8.5</v>
+      </c>
+      <c r="BF163">
+        <v>3.25</v>
+      </c>
+      <c r="BG163">
+        <v>1.32</v>
+      </c>
+      <c r="BH163">
+        <v>3.23</v>
+      </c>
+      <c r="BI163">
+        <v>1.59</v>
+      </c>
+      <c r="BJ163">
+        <v>2.23</v>
+      </c>
+      <c r="BK163">
+        <v>2.32</v>
+      </c>
+      <c r="BL163">
+        <v>1.77</v>
+      </c>
+      <c r="BM163">
+        <v>2.34</v>
+      </c>
+      <c r="BN163">
+        <v>1.48</v>
+      </c>
+      <c r="BO163">
+        <v>3.02</v>
+      </c>
+      <c r="BP163">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>8200575</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>46011.41666666666</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>85</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>92</v>
+      </c>
+      <c r="P164" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q164">
+        <v>4.37</v>
+      </c>
+      <c r="R164">
+        <v>2.15</v>
+      </c>
+      <c r="S164">
+        <v>2.88</v>
+      </c>
+      <c r="T164">
+        <v>1.5</v>
+      </c>
+      <c r="U164">
+        <v>2.57</v>
+      </c>
+      <c r="V164">
+        <v>2.9</v>
+      </c>
+      <c r="W164">
+        <v>1.33</v>
+      </c>
+      <c r="X164">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y164">
+        <v>1.04</v>
+      </c>
+      <c r="Z164">
+        <v>3.6</v>
+      </c>
+      <c r="AA164">
+        <v>3.3</v>
+      </c>
+      <c r="AB164">
+        <v>2.16</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>8</v>
+      </c>
+      <c r="AE164">
+        <v>1.37</v>
+      </c>
+      <c r="AF164">
+        <v>2.88</v>
+      </c>
+      <c r="AG164">
+        <v>2.31</v>
+      </c>
+      <c r="AH164">
+        <v>1.64</v>
+      </c>
+      <c r="AI164">
+        <v>1.91</v>
+      </c>
+      <c r="AJ164">
+        <v>1.8</v>
+      </c>
+      <c r="AK164">
+        <v>1.67</v>
+      </c>
+      <c r="AL164">
+        <v>1.25</v>
+      </c>
+      <c r="AM164">
+        <v>1.24</v>
+      </c>
+      <c r="AN164">
+        <v>0.75</v>
+      </c>
+      <c r="AO164">
+        <v>2</v>
+      </c>
+      <c r="AP164">
+        <v>0.78</v>
+      </c>
+      <c r="AQ164">
+        <v>1.88</v>
+      </c>
+      <c r="AR164">
+        <v>1.08</v>
+      </c>
+      <c r="AS164">
+        <v>1.16</v>
+      </c>
+      <c r="AT164">
+        <v>2.24</v>
+      </c>
+      <c r="AU164">
+        <v>3</v>
+      </c>
+      <c r="AV164">
+        <v>2</v>
+      </c>
+      <c r="AW164">
+        <v>7</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>10</v>
+      </c>
+      <c r="AZ164">
+        <v>6</v>
+      </c>
+      <c r="BA164">
+        <v>4</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>7</v>
+      </c>
+      <c r="BD164">
+        <v>2.23</v>
+      </c>
+      <c r="BE164">
+        <v>8.1</v>
+      </c>
+      <c r="BF164">
+        <v>1.87</v>
+      </c>
+      <c r="BG164">
+        <v>1.32</v>
+      </c>
+      <c r="BH164">
+        <v>2.92</v>
+      </c>
+      <c r="BI164">
+        <v>1.65</v>
+      </c>
+      <c r="BJ164">
+        <v>2.22</v>
+      </c>
+      <c r="BK164">
+        <v>2.23</v>
+      </c>
+      <c r="BL164">
+        <v>1.7</v>
+      </c>
+      <c r="BM164">
+        <v>2.44</v>
+      </c>
+      <c r="BN164">
+        <v>1.49</v>
+      </c>
+      <c r="BO164">
+        <v>3.68</v>
+      </c>
+      <c r="BP164">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>8200573</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>46011.51041666666</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>82</v>
+      </c>
+      <c r="H165" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>113</v>
+      </c>
+      <c r="P165" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q165">
+        <v>3.35</v>
+      </c>
+      <c r="R165">
+        <v>2.08</v>
+      </c>
+      <c r="S165">
+        <v>2.97</v>
+      </c>
+      <c r="T165">
+        <v>1.38</v>
+      </c>
+      <c r="U165">
+        <v>2.67</v>
+      </c>
+      <c r="V165">
+        <v>2.9</v>
+      </c>
+      <c r="W165">
+        <v>1.37</v>
+      </c>
+      <c r="X165">
+        <v>6.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.04</v>
+      </c>
+      <c r="Z165">
+        <v>2.93</v>
+      </c>
+      <c r="AA165">
+        <v>3.3</v>
+      </c>
+      <c r="AB165">
+        <v>2.41</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>8.6</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.36</v>
+      </c>
+      <c r="AG165">
+        <v>2.1</v>
+      </c>
+      <c r="AH165">
+        <v>1.86</v>
+      </c>
+      <c r="AI165">
+        <v>1.76</v>
+      </c>
+      <c r="AJ165">
+        <v>2.02</v>
+      </c>
+      <c r="AK165">
+        <v>1.33</v>
+      </c>
+      <c r="AL165">
+        <v>1.28</v>
+      </c>
+      <c r="AM165">
+        <v>1.4</v>
+      </c>
+      <c r="AN165">
+        <v>0.17</v>
+      </c>
+      <c r="AO165">
+        <v>0.75</v>
+      </c>
+      <c r="AP165">
+        <v>0.29</v>
+      </c>
+      <c r="AQ165">
+        <v>0.78</v>
+      </c>
+      <c r="AR165">
+        <v>1.13</v>
+      </c>
+      <c r="AS165">
+        <v>1.51</v>
+      </c>
+      <c r="AT165">
+        <v>2.64</v>
+      </c>
+      <c r="AU165">
+        <v>3</v>
+      </c>
+      <c r="AV165">
+        <v>6</v>
+      </c>
+      <c r="AW165">
+        <v>10</v>
+      </c>
+      <c r="AX165">
+        <v>12</v>
+      </c>
+      <c r="AY165">
+        <v>13</v>
+      </c>
+      <c r="AZ165">
+        <v>18</v>
+      </c>
+      <c r="BA165">
+        <v>7</v>
+      </c>
+      <c r="BB165">
+        <v>10</v>
+      </c>
+      <c r="BC165">
+        <v>17</v>
+      </c>
+      <c r="BD165">
+        <v>2.31</v>
+      </c>
+      <c r="BE165">
+        <v>8.6</v>
+      </c>
+      <c r="BF165">
+        <v>1.86</v>
+      </c>
+      <c r="BG165">
+        <v>1.23</v>
+      </c>
+      <c r="BH165">
+        <v>3.4</v>
+      </c>
+      <c r="BI165">
+        <v>1.47</v>
+      </c>
+      <c r="BJ165">
+        <v>2.48</v>
+      </c>
+      <c r="BK165">
+        <v>2.03</v>
+      </c>
+      <c r="BL165">
+        <v>1.96</v>
+      </c>
+      <c r="BM165">
+        <v>2.24</v>
+      </c>
+      <c r="BN165">
+        <v>1.6</v>
+      </c>
+      <c r="BO165">
+        <v>2.83</v>
+      </c>
+      <c r="BP165">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.11</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.5</v>
@@ -1355,7 +1355,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.75</v>
@@ -5933,7 +5933,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1.71</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.11</v>
@@ -7459,7 +7459,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.89</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.22</v>
@@ -11383,7 +11383,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -13781,7 +13781,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR61" t="n">
         <v>0.82</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.57</v>
@@ -14868,7 +14868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.88</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.38</v>
@@ -17487,7 +17487,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR78" t="n">
         <v>1.38</v>
@@ -18141,7 +18141,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -19010,7 +19010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.5</v>
@@ -20754,7 +20754,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.5</v>
@@ -21847,7 +21847,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR98" t="n">
         <v>1.54</v>
@@ -22065,7 +22065,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR99" t="n">
         <v>2.25</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.11</v>
@@ -25114,7 +25114,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.5</v>
@@ -26861,7 +26861,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR121" t="n">
         <v>1.51</v>
@@ -27948,7 +27948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.5600000000000001</v>
@@ -28605,7 +28605,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR129" t="n">
         <v>1.08</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ140" t="n">
         <v>2.1</v>
@@ -31439,7 +31439,7 @@
         <v>3</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR142" t="n">
         <v>2.27</v>
@@ -32090,7 +32090,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.13</v>
@@ -32529,7 +32529,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR147" t="n">
         <v>1.77</v>
@@ -32747,7 +32747,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -36965,6 +36965,442 @@
       </c>
       <c r="BP167" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8200727</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>46012.41666666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['13', '38', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U168" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X168" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8200732</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>46012.51041666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['12', '63']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U169" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.5</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.5</v>
@@ -4843,7 +4843,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.44</v>
@@ -5061,7 +5061,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.89</v>
@@ -5715,7 +5715,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.65</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.88</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.78</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -11819,7 +11819,7 @@
         <v>3</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>2.59</v>
@@ -13127,7 +13127,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.45</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.88</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.22</v>
@@ -16179,7 +16179,7 @@
         <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR72" t="n">
         <v>1.33</v>
@@ -17705,7 +17705,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.96</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.88</v>
@@ -19885,7 +19885,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR89" t="n">
         <v>0.9</v>
@@ -21193,7 +21193,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.33</v>
@@ -22937,7 +22937,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>2.05</v>
@@ -24460,7 +24460,7 @@
         <v>0.6</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.5600000000000001</v>
@@ -24896,7 +24896,7 @@
         <v>0.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.78</v>
@@ -26643,7 +26643,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR120" t="n">
         <v>1.21</v>
@@ -28169,7 +28169,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.01</v>
@@ -28384,7 +28384,7 @@
         <v>0.4</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.75</v>
@@ -28820,7 +28820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.1</v>
@@ -32093,7 +32093,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR145" t="n">
         <v>1.99</v>
@@ -32526,7 +32526,7 @@
         <v>1.86</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ147" t="n">
         <v>2.11</v>
@@ -32962,7 +32962,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.75</v>
@@ -33401,7 +33401,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.53</v>
@@ -37401,6 +37401,442 @@
       </c>
       <c r="BP169" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8200572</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>46012.60416666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>4</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['6', '67', '70', '90+1']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X170" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8200574</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>46012.70833333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>4</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['16', '49', '52', '60']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S171" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X171" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.11</v>
@@ -4189,7 +4189,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5</v>
@@ -10293,7 +10293,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR45" t="n">
         <v>2.18</v>
@@ -12252,7 +12252,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.75</v>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR62" t="n">
         <v>1.21</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.5600000000000001</v>
@@ -18359,7 +18359,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -24027,7 +24027,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR108" t="n">
         <v>1.45</v>
@@ -25986,7 +25986,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.5</v>
@@ -30785,7 +30785,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR139" t="n">
         <v>1.41</v>
@@ -31654,7 +31654,7 @@
         <v>1.88</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ143" t="n">
         <v>2.1</v>
@@ -32744,7 +32744,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.33</v>
@@ -34927,7 +34927,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR158" t="n">
         <v>1.15</v>
@@ -37779,25 +37779,25 @@
         <v>3</v>
       </c>
       <c r="AW171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY171" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ171" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA171" t="n">
         <v>7</v>
       </c>
       <c r="BB171" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC171" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD171" t="n">
         <v>1.44</v>
@@ -37837,6 +37837,224 @@
       </c>
       <c r="BP171" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8200571</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>46013.70833333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>17</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['44', '52']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.11</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.88</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.11</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.5</v>
@@ -26204,7 +26204,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ118" t="n">
         <v>2.1</v>
@@ -31218,7 +31218,7 @@
         <v>0.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.38</v>
@@ -35796,7 +35796,7 @@
         <v>1.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.5</v>
@@ -38055,6 +38055,224 @@
       </c>
       <c r="BP172" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8200581</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>46024.70833333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S173" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V173" t="n">
+        <v>4</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X173" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.33</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.5</v>
@@ -3753,7 +3753,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.5</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.89</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>1.49</v>
@@ -7023,7 +7023,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR30" t="n">
         <v>1.65</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.22</v>
@@ -7459,7 +7459,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.77</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.75</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.5600000000000001</v>
@@ -10947,7 +10947,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.15</v>
@@ -12473,7 +12473,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.24</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.38</v>
@@ -13781,7 +13781,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR61" t="n">
         <v>0.82</v>
@@ -14871,7 +14871,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR66" t="n">
         <v>2.6</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.88</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -17051,7 +17051,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR76" t="n">
         <v>2.07</v>
@@ -17487,7 +17487,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR78" t="n">
         <v>1.38</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.5</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.33</v>
@@ -19446,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19664,7 +19664,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.78</v>
@@ -20321,7 +20321,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -20972,7 +20972,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.38</v>
@@ -21411,7 +21411,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.46</v>
@@ -22065,7 +22065,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR99" t="n">
         <v>2.25</v>
@@ -22280,7 +22280,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.88</v>
@@ -23373,7 +23373,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR105" t="n">
         <v>1.56</v>
@@ -23591,7 +23591,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR106" t="n">
         <v>2.3</v>
@@ -24896,7 +24896,7 @@
         <v>0.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.78</v>
@@ -25768,10 +25768,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR116" t="n">
         <v>1.58</v>
@@ -26858,10 +26858,10 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR121" t="n">
         <v>1.51</v>
@@ -27515,7 +27515,7 @@
         <v>3</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR124" t="n">
         <v>2.37</v>
@@ -27730,7 +27730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.78</v>
@@ -28820,7 +28820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.1</v>
@@ -29038,7 +29038,7 @@
         <v>1.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.11</v>
@@ -29913,7 +29913,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR135" t="n">
         <v>1.12</v>
@@ -30349,7 +30349,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR137" t="n">
         <v>1.5</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.75</v>
@@ -31221,7 +31221,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR141" t="n">
         <v>1.65</v>
@@ -32529,7 +32529,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR147" t="n">
         <v>1.77</v>
@@ -32962,7 +32962,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.75</v>
@@ -33398,7 +33398,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -33834,7 +33834,7 @@
         <v>1</v>
       </c>
       <c r="AP153" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.89</v>
@@ -34273,7 +34273,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR155" t="n">
         <v>1.93</v>
@@ -35360,10 +35360,10 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ160" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AQ160" t="n">
-        <v>0.88</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -36668,7 +36668,7 @@
         <v>0.57</v>
       </c>
       <c r="AP166" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.5</v>
@@ -37325,7 +37325,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR169" t="n">
         <v>1.9</v>
@@ -37540,7 +37540,7 @@
         <v>1.11</v>
       </c>
       <c r="AP170" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ170" t="n">
         <v>1</v>
@@ -38273,6 +38273,878 @@
       </c>
       <c r="BP173" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8200576</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>46025.41666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>4</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['33', '59', '83', '90+4']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S174" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X174" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8200580</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>46025.51041666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X175" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8200578</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>46025.60416666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['7', '13', '83']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X176" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8200734</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>46025.70833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['86', '90']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X177" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -21712,7 +21712,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>8200442</v>
+        <v>8200517</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -21725,204 +21725,204 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45956.5</v>
+        <v>45956.51041666666</v>
       </c>
       <c r="F98" t="n">
         <v>10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Atlético Madrid</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22', '43']</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>['3', '45+1']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>3.68</v>
+        <v>2.2</v>
       </c>
       <c r="R98" t="n">
-        <v>2.28</v>
+        <v>2.91</v>
       </c>
       <c r="S98" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="T98" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="U98" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="V98" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="W98" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="X98" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="Z98" t="n">
-        <v>3.34</v>
+        <v>1.69</v>
       </c>
       <c r="AA98" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB98" t="n">
         <v>3.25</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>2.22</v>
       </c>
       <c r="AC98" t="n">
         <v>1.01</v>
       </c>
       <c r="AD98" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW98" t="n">
         <v>13</v>
       </c>
-      <c r="AE98" t="n">
+      <c r="AX98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG98" t="n">
         <v>1.25</v>
       </c>
-      <c r="AF98" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AP98" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR98" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AS98" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT98" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU98" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ98" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA98" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC98" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD98" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BE98" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF98" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG98" t="n">
-        <v>1.28</v>
-      </c>
       <c r="BH98" t="n">
-        <v>3.22</v>
+        <v>4.33</v>
       </c>
       <c r="BI98" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="BJ98" t="n">
-        <v>2.37</v>
+        <v>3.14</v>
       </c>
       <c r="BK98" t="n">
-        <v>2.11</v>
+        <v>1.49</v>
       </c>
       <c r="BL98" t="n">
-        <v>1.82</v>
+        <v>2.43</v>
       </c>
       <c r="BM98" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BN98" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="BO98" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="BP98" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="99">
@@ -21930,7 +21930,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>8200517</v>
+        <v>8200515</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -21943,19 +21943,19 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45956.51041666666</v>
+        <v>45956.60416666666</v>
       </c>
       <c r="F99" t="n">
         <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -21971,176 +21971,176 @@
         <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['22', '43']</t>
+          <t>['37', '45+1']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['26', '69', '87']</t>
         </is>
       </c>
       <c r="Q99" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG99" t="n">
         <v>2.2</v>
       </c>
-      <c r="R99" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S99" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T99" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V99" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W99" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X99" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AH99" t="n">
-        <v>3.27</v>
+        <v>1.62</v>
       </c>
       <c r="AI99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL99" t="n">
         <v>1.3</v>
       </c>
-      <c r="AJ99" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AM99" t="n">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="AN99" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO99" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.63</v>
+        <v>1.89</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="AR99" t="n">
-        <v>2.25</v>
+        <v>1.24</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.27</v>
+        <v>0.97</v>
       </c>
       <c r="AT99" t="n">
-        <v>4.52</v>
+        <v>2.21</v>
       </c>
       <c r="AU99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW99" t="n">
         <v>10</v>
       </c>
-      <c r="AV99" t="n">
+      <c r="AX99" t="n">
         <v>6</v>
       </c>
-      <c r="AW99" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>9</v>
-      </c>
       <c r="AY99" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ99" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA99" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BB99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC99" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BD99" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="BE99" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="BF99" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="BG99" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BH99" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="BI99" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="BJ99" t="n">
-        <v>3.14</v>
+        <v>2</v>
       </c>
       <c r="BK99" t="n">
-        <v>1.49</v>
+        <v>1.98</v>
       </c>
       <c r="BL99" t="n">
-        <v>2.43</v>
+        <v>1.73</v>
       </c>
       <c r="BM99" t="n">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BN99" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="BO99" t="n">
-        <v>2.75</v>
+        <v>4.15</v>
       </c>
       <c r="BP99" t="n">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="100">
@@ -22148,7 +22148,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>8200515</v>
+        <v>8200516</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -22161,204 +22161,204 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45956.60416666666</v>
+        <v>45956.70833333334</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X100" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA100" t="n">
         <v>3</v>
       </c>
-      <c r="L100" t="n">
-        <v>2</v>
-      </c>
-      <c r="M100" t="n">
-        <v>3</v>
-      </c>
-      <c r="N100" t="n">
+      <c r="AB100" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU100" t="n">
         <v>5</v>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>['37', '45+1']</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>['26', '69', '87']</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R100" t="n">
-        <v>2</v>
-      </c>
-      <c r="S100" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="T100" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U100" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V100" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W100" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X100" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AP100" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AQ100" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AR100" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AS100" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AT100" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AU100" t="n">
-        <v>7</v>
-      </c>
       <c r="AV100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW100" t="n">
         <v>10</v>
       </c>
       <c r="AX100" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB100" t="n">
         <v>5</v>
       </c>
-      <c r="BB100" t="n">
-        <v>2</v>
-      </c>
       <c r="BC100" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD100" t="n">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="BE100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF100" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="BG100" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BH100" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="BI100" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="BJ100" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BK100" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="BL100" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="BM100" t="n">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="BN100" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BO100" t="n">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="BP100" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="101">
@@ -22366,7 +22366,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>8200516</v>
+        <v>8200442</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -22379,204 +22379,204 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45956.70833333334</v>
+        <v>45957.70833333334</v>
       </c>
       <c r="F101" t="n">
         <v>10</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Atlético Madrid</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3', '45+1']</t>
         </is>
       </c>
       <c r="Q101" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S101" t="n">
         <v>2.8</v>
       </c>
-      <c r="R101" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S101" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T101" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="U101" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="V101" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="W101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X101" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE101" t="n">
         <v>1.25</v>
       </c>
-      <c r="X101" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AA101" t="n">
+      <c r="AF101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT101" t="n">
         <v>3</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AO101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP101" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AQ101" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR101" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AS101" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AT101" t="n">
-        <v>2.88</v>
       </c>
       <c r="AU101" t="n">
         <v>5</v>
       </c>
       <c r="AV101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW101" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX101" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ101" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA101" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB101" t="n">
         <v>5</v>
       </c>
       <c r="BC101" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN101" t="n">
         <v>1.55</v>
       </c>
-      <c r="BE101" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF101" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BG101" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BH101" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BI101" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BJ101" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BK101" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BL101" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BM101" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BN101" t="n">
-        <v>1.52</v>
-      </c>
       <c r="BO101" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="BP101" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="102">

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
         <v>2.2</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.22</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.88</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.75</v>
@@ -4407,7 +4407,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>2.89</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.42</v>
@@ -5497,7 +5497,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR23" t="n">
         <v>0.96</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR25" t="n">
         <v>1.71</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.5600000000000001</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.38</v>
@@ -7895,7 +7895,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.1</v>
@@ -8767,7 +8767,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR39" t="n">
         <v>0.9399999999999999</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.75</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.11</v>
@@ -11380,10 +11380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11601,7 +11601,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51" t="n">
         <v>1.36</v>
@@ -12255,7 +12255,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55" t="n">
         <v>2</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.5600000000000001</v>
@@ -14217,7 +14217,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR63" t="n">
         <v>0.96</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.5</v>
@@ -15961,7 +15961,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR71" t="n">
         <v>1.35</v>
@@ -16397,7 +16397,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR73" t="n">
         <v>0.8</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ76" t="n">
         <v>2</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.38</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.2</v>
@@ -17702,7 +17702,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -17923,7 +17923,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR80" t="n">
         <v>1.51</v>
@@ -18141,7 +18141,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5600000000000001</v>
@@ -18795,7 +18795,7 @@
         <v>3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR84" t="n">
         <v>2.45</v>
@@ -19013,7 +19013,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR85" t="n">
         <v>2.33</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.33</v>
@@ -20536,7 +20536,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.11</v>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR93" t="n">
         <v>1.15</v>
@@ -21626,10 +21626,10 @@
         <v>1.4</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.03</v>
@@ -21844,7 +21844,7 @@
         <v>2</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.2</v>
@@ -22501,7 +22501,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR101" t="n">
         <v>1.54</v>
@@ -22719,7 +22719,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>1</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.89</v>
@@ -23588,7 +23588,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.33</v>
@@ -24024,7 +24024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.75</v>
@@ -25332,7 +25332,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.22</v>
@@ -25553,7 +25553,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.78</v>
@@ -25989,7 +25989,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -26425,7 +26425,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR119" t="n">
         <v>1.46</v>
@@ -26640,7 +26640,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ120" t="n">
         <v>1</v>
@@ -27079,7 +27079,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR122" t="n">
         <v>1.51</v>
@@ -27294,7 +27294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.88</v>
@@ -28387,7 +28387,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -28605,7 +28605,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR129" t="n">
         <v>1.08</v>
@@ -29474,7 +29474,7 @@
         <v>0.14</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.22</v>
@@ -30131,7 +30131,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR136" t="n">
         <v>1.95</v>
@@ -30346,7 +30346,7 @@
         <v>1.67</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ137" t="n">
         <v>2</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR138" t="n">
         <v>1.37</v>
@@ -31439,7 +31439,7 @@
         <v>3</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR142" t="n">
         <v>2.27</v>
@@ -32308,7 +32308,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.78</v>
@@ -32747,7 +32747,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -32965,7 +32965,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR149" t="n">
         <v>1.61</v>
@@ -33616,7 +33616,7 @@
         <v>1.83</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.88</v>
@@ -33837,7 +33837,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR153" t="n">
         <v>1.42</v>
@@ -34052,10 +34052,10 @@
         <v>0.43</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR154" t="n">
         <v>1.57</v>
@@ -34488,7 +34488,7 @@
         <v>0.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.38</v>
@@ -35142,10 +35142,10 @@
         <v>0.57</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR159" t="n">
         <v>1.34</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161" t="n">
         <v>2.1</v>
@@ -35799,7 +35799,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR162" t="n">
         <v>1.72</v>
@@ -36886,7 +36886,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.11</v>
@@ -37107,7 +37107,7 @@
         <v>1</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -39145,6 +39145,1096 @@
       </c>
       <c r="BP177" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8200735</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>46026.41666666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>3</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['45+2', '77', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S178" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X178" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>8200582</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>46026.51041666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>5</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>6</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['20', '50', '56', '82', '90+3']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S179" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U179" t="n">
+        <v>4</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8200733</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>46026.60416666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['25', '63']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S180" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X180" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8200577</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>46026.60416666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S181" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X181" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8200583</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>46026.70833333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>18</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="V182" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.5600000000000001</v>
@@ -2663,7 +2663,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.1</v>
@@ -5279,7 +5279,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR22" t="n">
         <v>1.42</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -8985,7 +8985,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR39" t="n">
         <v>0.9399999999999999</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.22</v>
@@ -12909,7 +12909,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR57" t="n">
         <v>1.13</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.2</v>
@@ -14653,7 +14653,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR65" t="n">
         <v>0.96</v>
@@ -14868,7 +14868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.89</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.1</v>
@@ -17923,7 +17923,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR80" t="n">
         <v>1.51</v>
@@ -18356,7 +18356,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.75</v>
@@ -19010,10 +19010,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR85" t="n">
         <v>2.33</v>
@@ -22283,7 +22283,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR100" t="n">
         <v>1.74</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.22</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR113" t="n">
         <v>1.2</v>
@@ -26425,7 +26425,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR119" t="n">
         <v>1.46</v>
@@ -27948,7 +27948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.5600000000000001</v>
@@ -28166,7 +28166,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -29695,7 +29695,7 @@
         <v>3</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR134" t="n">
         <v>2.31</v>
@@ -30567,7 +30567,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR138" t="n">
         <v>1.37</v>
@@ -31872,7 +31872,7 @@
         <v>0.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.5600000000000001</v>
@@ -32090,7 +32090,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -35799,7 +35799,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR162" t="n">
         <v>1.72</v>
@@ -36232,7 +36232,7 @@
         <v>2</v>
       </c>
       <c r="AP164" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.88</v>
@@ -36671,7 +36671,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR166" t="n">
         <v>1.44</v>
@@ -37322,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ169" t="n">
         <v>2.2</v>
@@ -39505,7 +39505,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR179" t="n">
         <v>2.35</v>
@@ -40453,6 +40453,442 @@
       </c>
       <c r="BP183" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8200446</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>46032.41666666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S184" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X184" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8200589</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>46032.51041666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>4</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['49', '55', '75']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S185" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X185" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.11</v>
@@ -7241,7 +7241,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -7677,7 +7677,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.1</v>
@@ -10729,7 +10729,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR47" t="n">
         <v>2.48</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.89</v>
@@ -13563,7 +13563,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.75</v>
@@ -15743,7 +15743,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5600000000000001</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.33</v>
@@ -17269,7 +17269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR77" t="n">
         <v>1.2</v>
@@ -19231,7 +19231,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR86" t="n">
         <v>1.7</v>
@@ -20754,7 +20754,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.5600000000000001</v>
@@ -20975,7 +20975,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR109" t="n">
         <v>2.54</v>
@@ -24681,7 +24681,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR111" t="n">
         <v>1.04</v>
@@ -25114,7 +25114,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.44</v>
@@ -25335,7 +25335,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR114" t="n">
         <v>1.41</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.3</v>
@@ -27076,7 +27076,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.1</v>
@@ -29259,7 +29259,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR132" t="n">
         <v>1.06</v>
@@ -29477,7 +29477,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR133" t="n">
         <v>1.17</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ140" t="n">
         <v>2.1</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.11</v>
@@ -34491,7 +34491,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR156" t="n">
         <v>1.15</v>
@@ -34709,7 +34709,7 @@
         <v>3</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR157" t="n">
         <v>2.24</v>
@@ -36014,7 +36014,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.5600000000000001</v>
@@ -37104,7 +37104,7 @@
         <v>1.13</v>
       </c>
       <c r="AP168" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.3</v>
@@ -40889,6 +40889,442 @@
       </c>
       <c r="BP185" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8200585</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>46032.60416666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8200587</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>46032.70833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S187" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X187" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,7 +3317,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR13" t="n">
         <v>0.5</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ15" t="n">
         <v>2.2</v>
@@ -4189,7 +4189,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR28" t="n">
         <v>2.14</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.2</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.44</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.3</v>
@@ -9639,7 +9639,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -10293,7 +10293,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR45" t="n">
         <v>2.18</v>
@@ -11162,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.46</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ55" t="n">
         <v>2</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.1</v>
@@ -13345,7 +13345,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR59" t="n">
         <v>2</v>
@@ -13999,7 +13999,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR62" t="n">
         <v>1.21</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.11</v>
@@ -15307,7 +15307,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR68" t="n">
         <v>1.48</v>
@@ -16833,7 +16833,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.56</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.2</v>
@@ -18359,7 +18359,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR83" t="n">
         <v>1.42</v>
@@ -19882,7 +19882,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -22065,7 +22065,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR99" t="n">
         <v>1.24</v>
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.44</v>
@@ -23806,10 +23806,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -24027,7 +24027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR108" t="n">
         <v>1.45</v>
@@ -24463,7 +24463,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR110" t="n">
         <v>1.64</v>
@@ -25332,7 +25332,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.2</v>
@@ -26204,7 +26204,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118" t="n">
         <v>2.1</v>
@@ -27297,7 +27297,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -27951,7 +27951,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR126" t="n">
         <v>2.01</v>
@@ -29910,7 +29910,7 @@
         <v>0.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.89</v>
@@ -30564,7 +30564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.3</v>
@@ -30785,7 +30785,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR139" t="n">
         <v>1.41</v>
@@ -31218,7 +31218,7 @@
         <v>0.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.33</v>
@@ -31875,7 +31875,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR144" t="n">
         <v>1.02</v>
@@ -33619,7 +33619,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR152" t="n">
         <v>2.38</v>
@@ -34927,7 +34927,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR158" t="n">
         <v>1.15</v>
@@ -35142,7 +35142,7 @@
         <v>0.57</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.5600000000000001</v>
@@ -35796,7 +35796,7 @@
         <v>1.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.3</v>
@@ -36017,7 +36017,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR163" t="n">
         <v>1.43</v>
@@ -36235,7 +36235,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR164" t="n">
         <v>1.08</v>
@@ -36450,7 +36450,7 @@
         <v>0.75</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -37979,7 +37979,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR172" t="n">
         <v>1.57</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173" t="n">
         <v>1</v>
@@ -39284,7 +39284,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.1</v>
@@ -41325,6 +41325,660 @@
       </c>
       <c r="BP187" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8200586</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>46033.41666666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['4', '42']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X188" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8200424</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>46033.51041666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8200588</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>46034.70833333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2</v>
+      </c>
+      <c r="S190" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X190" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.3</v>
@@ -4407,7 +4407,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR18" t="n">
         <v>2.89</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.2</v>
@@ -8767,7 +8767,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.5</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.33</v>
@@ -12255,7 +12255,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.3</v>
@@ -18795,7 +18795,7 @@
         <v>3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR84" t="n">
         <v>2.45</v>
@@ -20972,7 +20972,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.44</v>
@@ -22719,7 +22719,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR102" t="n">
         <v>1</v>
@@ -25768,7 +25768,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ116" t="n">
         <v>2</v>
@@ -28387,7 +28387,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -29038,7 +29038,7 @@
         <v>1.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.11</v>
@@ -32965,7 +32965,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR149" t="n">
         <v>1.61</v>
@@ -33398,7 +33398,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -34055,7 +34055,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR154" t="n">
         <v>1.57</v>
@@ -39066,7 +39066,7 @@
         <v>2.11</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ177" t="n">
         <v>2.2</v>
@@ -39723,7 +39723,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -41979,6 +41979,224 @@
       </c>
       <c r="BP190" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8200592</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>46038.70833333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['45+3', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S191" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X191" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
         <v>2.2</v>
@@ -1791,7 +1791,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.2</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.44</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13" t="n">
         <v>2</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.33</v>
@@ -5497,7 +5497,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>0.96</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.5</v>
@@ -6805,7 +6805,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR29" t="n">
         <v>1.49</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR30" t="n">
         <v>1.65</v>
@@ -7895,7 +7895,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR37" t="n">
         <v>1.77</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.67</v>
@@ -10947,7 +10947,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.3</v>
@@ -11601,7 +11601,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.36</v>
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR55" t="n">
         <v>1.24</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.44</v>
@@ -14217,7 +14217,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>0.96</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.44</v>
@@ -14871,7 +14871,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR66" t="n">
         <v>2.6</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.2</v>
@@ -15961,7 +15961,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.35</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16397,7 +16397,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>0.8</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR76" t="n">
         <v>2.07</v>
@@ -19449,7 +19449,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -20757,7 +20757,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.15</v>
@@ -21411,7 +21411,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR96" t="n">
         <v>1.46</v>
@@ -21626,10 +21626,10 @@
         <v>1.4</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.03</v>
@@ -21844,7 +21844,7 @@
         <v>2</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.2</v>
@@ -22062,7 +22062,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
         <v>2</v>
@@ -22498,7 +22498,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.3</v>
@@ -23373,7 +23373,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR105" t="n">
         <v>1.56</v>
@@ -23588,7 +23588,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.33</v>
@@ -24460,7 +24460,7 @@
         <v>0.6</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.5</v>
@@ -25553,7 +25553,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.78</v>
@@ -25771,7 +25771,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ116" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR116" t="n">
         <v>1.58</v>
@@ -25989,7 +25989,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -26640,7 +26640,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120" t="n">
         <v>1</v>
@@ -27079,7 +27079,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR122" t="n">
         <v>1.51</v>
@@ -27515,7 +27515,7 @@
         <v>3</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR124" t="n">
         <v>2.37</v>
@@ -27730,7 +27730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -28384,7 +28384,7 @@
         <v>0.4</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.2</v>
@@ -29474,7 +29474,7 @@
         <v>0.14</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.2</v>
@@ -29913,7 +29913,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR135" t="n">
         <v>1.12</v>
@@ -30131,7 +30131,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR136" t="n">
         <v>1.95</v>
@@ -30349,7 +30349,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ137" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR137" t="n">
         <v>1.5</v>
@@ -32526,7 +32526,7 @@
         <v>1.86</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ147" t="n">
         <v>2.2</v>
@@ -33616,7 +33616,7 @@
         <v>1.83</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ152" t="n">
         <v>2</v>
@@ -33834,10 +33834,10 @@
         <v>1</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR153" t="n">
         <v>1.42</v>
@@ -34488,7 +34488,7 @@
         <v>0.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.44</v>
@@ -35145,7 +35145,7 @@
         <v>1</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR159" t="n">
         <v>1.34</v>
@@ -35363,7 +35363,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -36668,7 +36668,7 @@
         <v>0.57</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.44</v>
@@ -36886,7 +36886,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.11</v>
@@ -37758,7 +37758,7 @@
         <v>1.13</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ171" t="n">
         <v>1</v>
@@ -38630,10 +38630,10 @@
         <v>0.88</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR175" t="n">
         <v>1.5</v>
@@ -38851,7 +38851,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ176" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR176" t="n">
         <v>1.62</v>
@@ -39287,7 +39287,7 @@
         <v>1</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR178" t="n">
         <v>1.37</v>
@@ -39502,7 +39502,7 @@
         <v>1.5</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.3</v>
@@ -39720,7 +39720,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.2</v>
@@ -39941,7 +39941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR181" t="n">
         <v>1.3</v>
@@ -42197,6 +42197,878 @@
       </c>
       <c r="BP191" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8200757</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>46039.41666666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['58', '65']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8200751</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>46039.51041666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2</v>
+      </c>
+      <c r="K193" t="n">
+        <v>4</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>5</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['5', '42', '69']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['8', '45']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X193" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8200768</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>46039.60416666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['45', '75', '90+2']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['40', '68']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S194" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X194" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8200777</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>46039.70833333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['57', '83']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U195" t="n">
+        <v>3</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X195" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.44</v>
@@ -3753,7 +3753,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.67</v>
@@ -4843,7 +4843,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR20" t="n">
         <v>1.44</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.3</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.78</v>
@@ -7459,7 +7459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.5</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.1</v>
@@ -8331,7 +8331,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.78</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.2</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR53" t="n">
         <v>1.15</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR57" t="n">
         <v>1.13</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR58" t="n">
         <v>1.45</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.5</v>
@@ -13781,7 +13781,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR61" t="n">
         <v>0.82</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.1</v>
@@ -14653,7 +14653,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR65" t="n">
         <v>0.96</v>
@@ -16615,7 +16615,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -17487,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR78" t="n">
         <v>1.38</v>
@@ -17702,10 +17702,10 @@
         <v>0.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR79" t="n">
         <v>1.96</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.3</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.2</v>
@@ -19664,7 +19664,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -19885,7 +19885,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR89" t="n">
         <v>0.9</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.1</v>
@@ -20321,7 +20321,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -20536,7 +20536,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.11</v>
@@ -21847,7 +21847,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>2.25</v>
@@ -22283,7 +22283,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR100" t="n">
         <v>1.74</v>
@@ -22716,7 +22716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.2</v>
@@ -22937,7 +22937,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR103" t="n">
         <v>2.05</v>
@@ -23152,7 +23152,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.11</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.8</v>
@@ -23591,7 +23591,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR106" t="n">
         <v>2.3</v>
@@ -25117,7 +25117,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR113" t="n">
         <v>1.2</v>
@@ -25550,7 +25550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -26858,10 +26858,10 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR121" t="n">
         <v>1.51</v>
@@ -28169,7 +28169,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR127" t="n">
         <v>1.01</v>
@@ -28602,7 +28602,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.3</v>
@@ -29256,7 +29256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.44</v>
@@ -29695,7 +29695,7 @@
         <v>3</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR134" t="n">
         <v>2.31</v>
@@ -30128,7 +30128,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.5</v>
@@ -30346,7 +30346,7 @@
         <v>1.67</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.78</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.67</v>
@@ -31221,7 +31221,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR141" t="n">
         <v>1.65</v>
@@ -32529,7 +32529,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR147" t="n">
         <v>1.77</v>
@@ -33401,7 +33401,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR151" t="n">
         <v>1.53</v>
@@ -34052,7 +34052,7 @@
         <v>0.43</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.2</v>
@@ -34270,10 +34270,10 @@
         <v>0.43</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR155" t="n">
         <v>1.93</v>
@@ -34924,7 +34924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.67</v>
@@ -35360,7 +35360,7 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.8</v>
@@ -36671,7 +36671,7 @@
         <v>2</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR166" t="n">
         <v>1.44</v>
@@ -37325,7 +37325,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR169" t="n">
         <v>1.9</v>
@@ -37543,7 +37543,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR170" t="n">
         <v>1.59</v>
@@ -38412,10 +38412,10 @@
         <v>0.38</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR174" t="n">
         <v>1.31</v>
@@ -39069,7 +39069,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR177" t="n">
         <v>1.48</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.3</v>
@@ -40374,7 +40374,7 @@
         <v>0.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ183" t="n">
         <v>1</v>
@@ -40813,7 +40813,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -43069,6 +43069,878 @@
       </c>
       <c r="BP195" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8200593</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>46040.41666666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S196" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V196" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X196" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8200590</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>46040.51041666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S197" t="n">
+        <v>8</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U197" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X197" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8200591</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>46040.60416666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>3</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['40', '54', '79']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S198" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8200764</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>46040.70833333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>3</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['32', '71']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U199" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X199" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.3</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR27" t="n">
         <v>0.86</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR46" t="n">
         <v>1.19</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -15089,7 +15089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.6</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ68" t="n">
         <v>2</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.8</v>
@@ -20539,7 +20539,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR92" t="n">
         <v>1.75</v>
@@ -23155,7 +23155,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.79</v>
@@ -24896,7 +24896,7 @@
         <v>0.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -28820,7 +28820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.1</v>
@@ -29041,7 +29041,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.6</v>
@@ -32962,7 +32962,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.2</v>
@@ -33183,7 +33183,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR150" t="n">
         <v>1.47</v>
@@ -36889,7 +36889,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR167" t="n">
         <v>2.39</v>
@@ -37540,7 +37540,7 @@
         <v>1.11</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.91</v>
@@ -38848,7 +38848,7 @@
         <v>1.86</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.78</v>
@@ -43941,6 +43941,224 @@
       </c>
       <c r="BP199" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8200767</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>46041.70833333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['14', '55']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['75', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S200" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X200" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>8200502</v>
+        <v>8200496</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17590,167 +17590,167 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>RCD Espanyol</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['15']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>['54', '63']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R79" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S79" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T79" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="U79" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="V79" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="W79" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="X79" t="n">
-        <v>8.300000000000001</v>
+        <v>5.75</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z79" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="AA79" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AB79" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="AC79" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AD79" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="n">
         <v>9</v>
       </c>
-      <c r="AE79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>7</v>
-      </c>
       <c r="AX79" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY79" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA79" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>7</v>
       </c>
       <c r="BB79" t="n">
         <v>5</v>
       </c>
       <c r="BC79" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD79" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="BE79" t="n">
-        <v>7.5</v>
+        <v>6.55</v>
       </c>
       <c r="BF79" t="n">
-        <v>2.65</v>
+        <v>1.97</v>
       </c>
       <c r="BG79" t="n">
         <v>1.25</v>
@@ -17765,16 +17765,16 @@
         <v>2.55</v>
       </c>
       <c r="BK79" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="BL79" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="BM79" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="BN79" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BO79" t="n">
         <v>2.8</v>
@@ -17788,7 +17788,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>8200496</v>
+        <v>8200502</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -17808,167 +17808,167 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>RCD Espanyol</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X80" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU80" t="n">
         <v>3</v>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>['15']</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>['54', '63']</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R80" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S80" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U80" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X80" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU80" t="n">
+      <c r="AV80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX80" t="n">
         <v>5</v>
       </c>
-      <c r="AV80" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>9</v>
-      </c>
       <c r="AY80" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ80" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB80" t="n">
         <v>5</v>
       </c>
       <c r="BC80" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD80" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="BE80" t="n">
-        <v>6.55</v>
+        <v>7.5</v>
       </c>
       <c r="BF80" t="n">
-        <v>1.97</v>
+        <v>2.65</v>
       </c>
       <c r="BG80" t="n">
         <v>1.25</v>
@@ -17983,16 +17983,16 @@
         <v>2.55</v>
       </c>
       <c r="BK80" t="n">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="BL80" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="BM80" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="BN80" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="BO80" t="n">
         <v>2.8</v>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,7 +3535,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15" t="n">
         <v>2</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.3</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.1</v>
@@ -13563,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -17269,7 +17269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR77" t="n">
         <v>1.2</v>
@@ -19882,7 +19882,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.91</v>
@@ -20975,7 +20975,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -23806,7 +23806,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ107" t="n">
         <v>2</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR109" t="n">
         <v>2.54</v>
@@ -29259,7 +29259,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR132" t="n">
         <v>1.06</v>
@@ -29910,7 +29910,7 @@
         <v>0.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.8</v>
@@ -34491,7 +34491,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR156" t="n">
         <v>1.15</v>
@@ -36450,7 +36450,7 @@
         <v>0.75</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -41249,7 +41249,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR187" t="n">
         <v>1.47</v>
@@ -41682,7 +41682,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.67</v>
@@ -44159,6 +44159,224 @@
       </c>
       <c r="BP200" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8200752</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>46045.70833333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>21</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2</v>
+      </c>
+      <c r="N201" t="n">
+        <v>5</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['50', '68', '90+6']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['11', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X201" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32" t="n">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR45" t="n">
         <v>2.18</v>
@@ -10729,7 +10729,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR47" t="n">
         <v>2.48</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.8</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49" t="n">
         <v>2</v>
@@ -13999,7 +13999,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.21</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.1</v>
@@ -15743,7 +15743,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5</v>
@@ -18359,7 +18359,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -19231,7 +19231,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR86" t="n">
         <v>1.7</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.78</v>
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.4</v>
@@ -24027,7 +24027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR108" t="n">
         <v>1.45</v>
@@ -24681,7 +24681,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR111" t="n">
         <v>1.04</v>
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR114" t="n">
         <v>1.41</v>
@@ -26204,7 +26204,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ118" t="n">
         <v>2.1</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.3</v>
@@ -27076,7 +27076,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ122" t="n">
         <v>1</v>
@@ -29477,7 +29477,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR133" t="n">
         <v>1.17</v>
@@ -30785,7 +30785,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR139" t="n">
         <v>1.41</v>
@@ -31218,7 +31218,7 @@
         <v>0.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.6</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.1</v>
@@ -34709,7 +34709,7 @@
         <v>3</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR157" t="n">
         <v>2.24</v>
@@ -34927,7 +34927,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR158" t="n">
         <v>1.15</v>
@@ -35796,7 +35796,7 @@
         <v>1.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.3</v>
@@ -36014,7 +36014,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.5</v>
@@ -37979,7 +37979,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR172" t="n">
         <v>1.57</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ173" t="n">
         <v>1</v>
@@ -41031,7 +41031,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR186" t="n">
         <v>1.17</v>
@@ -41246,7 +41246,7 @@
         <v>0.38</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.4</v>
@@ -41464,7 +41464,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.5</v>
@@ -41685,7 +41685,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR189" t="n">
         <v>1.15</v>
@@ -44377,6 +44377,442 @@
       </c>
       <c r="BP201" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8200445</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>46046.41666666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['29', '90+4', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S202" t="n">
+        <v>4</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X202" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8200784</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>46046.51041666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>5</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['15', '59', '90+4']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['54', '79']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>3</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S203" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X203" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP203"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.5</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.2</v>
@@ -4625,7 +4625,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -7023,7 +7023,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR30" t="n">
         <v>1.65</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.4</v>
@@ -8113,7 +8113,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR35" t="n">
         <v>1.77</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.45</v>
@@ -10947,7 +10947,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.78</v>
@@ -12691,7 +12691,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR56" t="n">
         <v>0.84</v>
@@ -14435,7 +14435,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR64" t="n">
         <v>1.74</v>
@@ -14868,10 +14868,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR66" t="n">
         <v>2.6</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ78" t="n">
         <v>2</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5</v>
@@ -19010,7 +19010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.3</v>
@@ -19449,7 +19449,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -20103,7 +20103,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR90" t="n">
         <v>1.1</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.91</v>
@@ -23373,7 +23373,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR105" t="n">
         <v>1.56</v>
@@ -25332,7 +25332,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.45</v>
@@ -26207,7 +26207,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR118" t="n">
         <v>1.74</v>
@@ -27515,7 +27515,7 @@
         <v>3</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR124" t="n">
         <v>2.37</v>
@@ -27948,7 +27948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.5</v>
@@ -28823,7 +28823,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29913,7 +29913,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR135" t="n">
         <v>1.12</v>
@@ -30564,7 +30564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.3</v>
@@ -31003,7 +31003,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR140" t="n">
         <v>1.2</v>
@@ -31657,7 +31657,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR143" t="n">
         <v>1.62</v>
@@ -32090,7 +32090,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -35142,7 +35142,7 @@
         <v>0.57</v>
       </c>
       <c r="AP159" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.5</v>
@@ -35363,7 +35363,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -35581,7 +35581,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ161" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR161" t="n">
         <v>1.35</v>
@@ -37322,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ169" t="n">
         <v>2</v>
@@ -38633,7 +38633,7 @@
         <v>2</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR175" t="n">
         <v>1.5</v>
@@ -39284,7 +39284,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ178" t="n">
         <v>1</v>
@@ -40810,7 +40810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.4</v>
@@ -41900,7 +41900,7 @@
         <v>1.88</v>
       </c>
       <c r="AP190" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ190" t="n">
         <v>2</v>
@@ -42557,7 +42557,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR193" t="n">
         <v>1.21</v>
@@ -44813,6 +44813,442 @@
       </c>
       <c r="BP203" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8200448</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>46046.60416666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['42', '56']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R204" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X204" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8200713</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>46046.70833333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['47', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U205" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X205" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -44437,7 +44437,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>['29', '90+4', '90+1']</t>
+          <t>['29', '90+1', '90+4']</t>
         </is>
       </c>
       <c r="Q202" t="n">

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR13" t="n">
         <v>0.5</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.4</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.5</v>
@@ -6587,7 +6587,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR28" t="n">
         <v>2.14</v>
@@ -7895,7 +7895,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.18</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.78</v>
@@ -9639,7 +9639,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -11165,7 +11165,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR49" t="n">
         <v>1.46</v>
@@ -11601,7 +11601,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR51" t="n">
         <v>1.36</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.91</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR59" t="n">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.18</v>
@@ -15307,7 +15307,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR68" t="n">
         <v>1.48</v>
@@ -15961,7 +15961,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR71" t="n">
         <v>1.35</v>
@@ -16833,7 +16833,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR75" t="n">
         <v>1.56</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.91</v>
@@ -18577,7 +18577,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR83" t="n">
         <v>1.42</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.45</v>
@@ -20536,7 +20536,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.1</v>
@@ -20757,7 +20757,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR93" t="n">
         <v>1.15</v>
@@ -22065,7 +22065,7 @@
         <v>2</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR99" t="n">
         <v>1.24</v>
@@ -23152,7 +23152,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.1</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.73</v>
@@ -23809,7 +23809,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -24463,7 +24463,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR110" t="n">
         <v>1.64</v>
@@ -25550,7 +25550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -27297,7 +27297,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -27951,7 +27951,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR126" t="n">
         <v>2.01</v>
@@ -30128,10 +30128,10 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR136" t="n">
         <v>1.95</v>
@@ -30346,7 +30346,7 @@
         <v>1.67</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.78</v>
@@ -31875,7 +31875,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR144" t="n">
         <v>1.02</v>
@@ -33619,7 +33619,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ152" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR152" t="n">
         <v>2.38</v>
@@ -34052,7 +34052,7 @@
         <v>0.43</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.2</v>
@@ -34270,7 +34270,7 @@
         <v>0.43</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.6</v>
@@ -35145,7 +35145,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR159" t="n">
         <v>1.34</v>
@@ -36017,7 +36017,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR163" t="n">
         <v>1.43</v>
@@ -36235,7 +36235,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ164" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR164" t="n">
         <v>1.08</v>
@@ -39941,7 +39941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR181" t="n">
         <v>1.3</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.3</v>
@@ -41467,7 +41467,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR188" t="n">
         <v>1.76</v>
@@ -41903,7 +41903,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ190" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR190" t="n">
         <v>1.43</v>
@@ -42775,7 +42775,7 @@
         <v>2</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR194" t="n">
         <v>1.46</v>
@@ -43426,7 +43426,7 @@
         <v>0.44</v>
       </c>
       <c r="AP197" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ197" t="n">
         <v>0.4</v>
@@ -43862,7 +43862,7 @@
         <v>2.2</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ199" t="n">
         <v>2</v>
@@ -45249,6 +45249,660 @@
       </c>
       <c r="BP205" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8200759</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>46047.41666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['22', '75', '87']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S206" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U206" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X206" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8200737</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>46047.51041666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['52', '57', '73']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S207" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U207" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="V207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W207" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8200595</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>46047.60416666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>4</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['17', '75', '90+6']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X208" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR22" t="n">
         <v>1.42</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.3</v>
@@ -8985,7 +8985,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR39" t="n">
         <v>0.9399999999999999</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.1</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.4</v>
@@ -17705,7 +17705,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR79" t="n">
         <v>1.51</v>
@@ -19013,7 +19013,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR85" t="n">
         <v>2.33</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.6</v>
@@ -24024,7 +24024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.5</v>
@@ -26425,7 +26425,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR119" t="n">
         <v>1.46</v>
@@ -27294,7 +27294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.8</v>
@@ -30567,7 +30567,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR138" t="n">
         <v>1.37</v>
@@ -32308,7 +32308,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ146" t="n">
         <v>1</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ161" t="n">
         <v>2.18</v>
@@ -35799,7 +35799,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR162" t="n">
         <v>1.72</v>
@@ -39505,7 +39505,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR179" t="n">
         <v>2.35</v>
@@ -39938,7 +39938,7 @@
         <v>0.5</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.45</v>
@@ -40595,7 +40595,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR184" t="n">
         <v>1.1</v>
@@ -45903,6 +45903,224 @@
       </c>
       <c r="BP208" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8200594</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>46047.70833333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>3</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['3', '47']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X209" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.91</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.1</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.6</v>
@@ -20754,7 +20754,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.45</v>
@@ -25114,7 +25114,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.4</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ140" t="n">
         <v>2.18</v>
@@ -37104,7 +37104,7 @@
         <v>1.13</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.3</v>
@@ -41028,7 +41028,7 @@
         <v>0.22</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ186" t="n">
         <v>0.45</v>
@@ -46121,6 +46121,224 @@
       </c>
       <c r="BP209" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8200596</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>46048.70833333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S210" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X210" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -46281,13 +46281,13 @@
         <v>2</v>
       </c>
       <c r="AW210" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX210" t="n">
         <v>6</v>
       </c>
       <c r="AY210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ210" t="n">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.18</v>
@@ -3099,7 +3099,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.6</v>
@@ -4407,7 +4407,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR18" t="n">
         <v>2.89</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.18</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR25" t="n">
         <v>1.71</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR29" t="n">
         <v>1.49</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.45</v>
@@ -7459,7 +7459,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -8549,7 +8549,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR37" t="n">
         <v>1.77</v>
@@ -8767,7 +8767,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.18</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.91</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.45</v>
@@ -11383,7 +11383,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.45</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.6</v>
@@ -12255,7 +12255,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12473,7 +12473,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR55" t="n">
         <v>1.24</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.18</v>
@@ -12909,7 +12909,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR57" t="n">
         <v>1.13</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.4</v>
@@ -13778,10 +13778,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR61" t="n">
         <v>0.82</v>
@@ -14653,7 +14653,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR65" t="n">
         <v>0.96</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.8</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR76" t="n">
         <v>2.07</v>
@@ -17487,7 +17487,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR78" t="n">
         <v>1.38</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.18</v>
@@ -18141,7 +18141,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18356,7 +18356,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.5</v>
@@ -18795,7 +18795,7 @@
         <v>3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR84" t="n">
         <v>2.45</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.73</v>
@@ -19882,7 +19882,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.91</v>
@@ -20972,7 +20972,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.4</v>
@@ -21411,7 +21411,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR96" t="n">
         <v>1.46</v>
@@ -21847,7 +21847,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR98" t="n">
         <v>2.25</v>
@@ -22062,7 +22062,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.8</v>
@@ -22283,7 +22283,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR100" t="n">
         <v>1.74</v>
@@ -22501,7 +22501,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR101" t="n">
         <v>1.54</v>
@@ -22719,7 +22719,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR102" t="n">
         <v>1</v>
@@ -23806,7 +23806,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.8</v>
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.45</v>
@@ -24896,7 +24896,7 @@
         <v>0.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25117,7 +25117,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR113" t="n">
         <v>1.2</v>
@@ -25768,10 +25768,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR116" t="n">
         <v>1.58</v>
@@ -26861,7 +26861,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR121" t="n">
         <v>1.51</v>
@@ -27730,7 +27730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -28166,7 +28166,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.91</v>
@@ -28387,7 +28387,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -28605,7 +28605,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR129" t="n">
         <v>1.08</v>
@@ -28820,7 +28820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.18</v>
@@ -29038,7 +29038,7 @@
         <v>1.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.1</v>
@@ -29695,7 +29695,7 @@
         <v>3</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR134" t="n">
         <v>2.31</v>
@@ -29910,7 +29910,7 @@
         <v>0.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.73</v>
@@ -30349,7 +30349,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR137" t="n">
         <v>1.5</v>
@@ -31439,7 +31439,7 @@
         <v>3</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR142" t="n">
         <v>2.27</v>
@@ -31872,7 +31872,7 @@
         <v>0.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.45</v>
@@ -32529,7 +32529,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR147" t="n">
         <v>1.77</v>
@@ -32747,7 +32747,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -32962,10 +32962,10 @@
         <v>0.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR149" t="n">
         <v>1.61</v>
@@ -33398,7 +33398,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.91</v>
@@ -33834,7 +33834,7 @@
         <v>1</v>
       </c>
       <c r="AP153" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ153" t="n">
         <v>1</v>
@@ -34055,7 +34055,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR154" t="n">
         <v>1.57</v>
@@ -36232,7 +36232,7 @@
         <v>2</v>
       </c>
       <c r="AP164" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.8</v>
@@ -36450,7 +36450,7 @@
         <v>0.75</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -36668,10 +36668,10 @@
         <v>0.57</v>
       </c>
       <c r="AP166" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR166" t="n">
         <v>1.44</v>
@@ -37107,7 +37107,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37325,7 +37325,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR169" t="n">
         <v>1.9</v>
@@ -37540,7 +37540,7 @@
         <v>1.11</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.91</v>
@@ -38630,7 +38630,7 @@
         <v>0.88</v>
       </c>
       <c r="AP175" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.73</v>
@@ -38848,10 +38848,10 @@
         <v>1.86</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR176" t="n">
         <v>1.62</v>
@@ -39066,10 +39066,10 @@
         <v>2.11</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR177" t="n">
         <v>1.48</v>
@@ -39723,7 +39723,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -40159,7 +40159,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR182" t="n">
         <v>1.56</v>
@@ -40592,7 +40592,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.18</v>
@@ -40813,7 +40813,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -41682,7 +41682,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.5</v>
@@ -42118,10 +42118,10 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42772,7 +42772,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ194" t="n">
         <v>0.45</v>
@@ -42993,7 +42993,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR195" t="n">
         <v>1.8</v>
@@ -43429,7 +43429,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR197" t="n">
         <v>1.87</v>
@@ -43865,7 +43865,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ199" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR199" t="n">
         <v>1.62</v>
@@ -44080,7 +44080,7 @@
         <v>1.11</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.1</v>
@@ -44298,7 +44298,7 @@
         <v>0.44</v>
       </c>
       <c r="AP201" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.4</v>
@@ -46339,6 +46339,1096 @@
       </c>
       <c r="BP210" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8200753</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>46052.70833333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>22</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['27', '71']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R211" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S211" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X211" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8200736</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>46053.41666666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="R212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X212" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8200779</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>46053.51041666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>2</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>3</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2</v>
+      </c>
+      <c r="N213" t="n">
+        <v>4</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['20', '45+2']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['17', '70']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S213" t="n">
+        <v>3</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X213" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8200563</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>46053.60416666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X214" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8200556</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>46053.70833333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2</v>
+      </c>
+      <c r="K215" t="n">
+        <v>3</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>3</v>
+      </c>
+      <c r="N215" t="n">
+        <v>4</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['6', '40', '72']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S215" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U215" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V215" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X215" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.45</v>
@@ -4843,7 +4843,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR20" t="n">
         <v>1.44</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.45</v>
@@ -9203,7 +9203,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.5</v>
@@ -13127,7 +13127,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR58" t="n">
         <v>1.45</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.7</v>
@@ -17923,7 +17923,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR80" t="n">
         <v>1.96</v>
@@ -19885,7 +19885,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR89" t="n">
         <v>0.9</v>
@@ -21844,7 +21844,7 @@
         <v>2</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.08</v>
@@ -22937,7 +22937,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR103" t="n">
         <v>2.05</v>
@@ -23588,7 +23588,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.6</v>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR127" t="n">
         <v>1.01</v>
@@ -33401,7 +33401,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR151" t="n">
         <v>1.53</v>
@@ -33616,7 +33616,7 @@
         <v>1.83</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.8</v>
@@ -36886,7 +36886,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.1</v>
@@ -37543,7 +37543,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR170" t="n">
         <v>1.59</v>
@@ -39502,7 +39502,7 @@
         <v>1.5</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.18</v>
@@ -42336,7 +42336,7 @@
         <v>1.1</v>
       </c>
       <c r="AP192" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ192" t="n">
         <v>1</v>
@@ -43647,7 +43647,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR198" t="n">
         <v>1.32</v>
@@ -47429,6 +47429,224 @@
       </c>
       <c r="BP215" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8200781</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>46054.41666666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['15', '90+10']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S216" t="n">
+        <v>7</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U216" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X216" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.1</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.64</v>
@@ -3317,7 +3317,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR13" t="n">
         <v>0.5</v>
@@ -3971,7 +3971,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.83</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.73</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.45</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.64</v>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR49" t="n">
         <v>1.46</v>
@@ -12037,7 +12037,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR53" t="n">
         <v>1.15</v>
@@ -12252,7 +12252,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.09</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.64</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR68" t="n">
         <v>1.48</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.45</v>
@@ -16615,7 +16615,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.45</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.18</v>
@@ -20321,7 +20321,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -22065,7 +22065,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR99" t="n">
         <v>1.24</v>
@@ -22498,7 +22498,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.27</v>
@@ -22716,7 +22716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.09</v>
@@ -23591,7 +23591,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR106" t="n">
         <v>2.3</v>
@@ -23809,7 +23809,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -24460,7 +24460,7 @@
         <v>0.6</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.45</v>
@@ -25986,7 +25986,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.45</v>
@@ -27297,7 +27297,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -28384,7 +28384,7 @@
         <v>0.4</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.09</v>
@@ -28602,7 +28602,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.27</v>
@@ -29256,7 +29256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.4</v>
@@ -31221,7 +31221,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR141" t="n">
         <v>1.65</v>
@@ -31654,7 +31654,7 @@
         <v>1.88</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ143" t="n">
         <v>2.18</v>
@@ -32526,7 +32526,7 @@
         <v>1.86</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ147" t="n">
         <v>2.08</v>
@@ -32744,7 +32744,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.27</v>
@@ -33619,7 +33619,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR152" t="n">
         <v>2.38</v>
@@ -34273,7 +34273,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR155" t="n">
         <v>1.93</v>
@@ -34924,7 +34924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.5</v>
@@ -36235,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR164" t="n">
         <v>1.08</v>
@@ -37758,7 +37758,7 @@
         <v>1.13</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
         <v>1</v>
@@ -37976,7 +37976,7 @@
         <v>1.57</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.5</v>
@@ -38415,7 +38415,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR174" t="n">
         <v>1.31</v>
@@ -40374,7 +40374,7 @@
         <v>0.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ183" t="n">
         <v>1</v>
@@ -41903,7 +41903,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR190" t="n">
         <v>1.43</v>
@@ -42990,7 +42990,7 @@
         <v>2</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.7</v>
@@ -43208,10 +43208,10 @@
         <v>0.33</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR196" t="n">
         <v>1.1</v>
@@ -45827,7 +45827,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR208" t="n">
         <v>1.57</v>
@@ -47647,6 +47647,660 @@
       </c>
       <c r="BP216" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8200598</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>46054.51041666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['23', '88']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U217" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X217" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8200778</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>46054.60416666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X218" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>8200597</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>46054.70833333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S219" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X219" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4" t="n">
         <v>2.08</v>
@@ -2227,7 +2227,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.73</v>
@@ -6369,7 +6369,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>0.86</v>
@@ -10511,7 +10511,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>1.19</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.27</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.64</v>
@@ -15089,7 +15089,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.6</v>
@@ -20539,7 +20539,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR92" t="n">
         <v>1.75</v>
@@ -21626,7 +21626,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -23155,7 +23155,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.79</v>
@@ -26640,7 +26640,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ120" t="n">
         <v>1</v>
@@ -29041,7 +29041,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.6</v>
@@ -29474,7 +29474,7 @@
         <v>0.14</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.45</v>
@@ -33183,7 +33183,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR150" t="n">
         <v>1.47</v>
@@ -34488,7 +34488,7 @@
         <v>0.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.4</v>
@@ -36889,7 +36889,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR167" t="n">
         <v>2.39</v>
@@ -39720,7 +39720,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.09</v>
@@ -42554,7 +42554,7 @@
         <v>0.89</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.73</v>
@@ -44083,7 +44083,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR200" t="n">
         <v>1.65</v>
@@ -48301,6 +48301,224 @@
       </c>
       <c r="BP219" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>8200765</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>46055.70833333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>4</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>5</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['26', '53', '74', '90+6']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -48455,13 +48455,13 @@
         <v>2.57</v>
       </c>
       <c r="AU220" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV220" t="n">
         <v>5</v>
       </c>
       <c r="AW220" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX220" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.5</v>
@@ -4407,7 +4407,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR18" t="n">
         <v>2.89</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.83</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.42</v>
@@ -5497,7 +5497,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR23" t="n">
         <v>0.96</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR24" t="n">
         <v>1.65</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.27</v>
@@ -6587,7 +6587,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR28" t="n">
         <v>2.14</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.7</v>
@@ -7241,7 +7241,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -7674,10 +7674,10 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR35" t="n">
         <v>1.77</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.64</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.7</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR39" t="n">
         <v>0.9399999999999999</v>
@@ -9639,7 +9639,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -10075,7 +10075,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR47" t="n">
         <v>2.48</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.73</v>
@@ -11819,7 +11819,7 @@
         <v>3</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR52" t="n">
         <v>2.59</v>
@@ -12252,10 +12252,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.7</v>
@@ -12691,7 +12691,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR56" t="n">
         <v>0.84</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.83</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR59" t="n">
         <v>2</v>
@@ -13563,7 +13563,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -14217,7 +14217,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR63" t="n">
         <v>0.96</v>
@@ -14432,10 +14432,10 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR64" t="n">
         <v>1.74</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.45</v>
@@ -16179,7 +16179,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR72" t="n">
         <v>1.33</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR73" t="n">
         <v>0.8</v>
@@ -16830,10 +16830,10 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR75" t="n">
         <v>1.56</v>
@@ -17266,10 +17266,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR77" t="n">
         <v>1.2</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.08</v>
@@ -17705,7 +17705,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR79" t="n">
         <v>1.51</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.83</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.27</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR83" t="n">
         <v>1.42</v>
@@ -18795,7 +18795,7 @@
         <v>3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR84" t="n">
         <v>2.45</v>
@@ -19013,7 +19013,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR85" t="n">
         <v>2.33</v>
@@ -19228,10 +19228,10 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR86" t="n">
         <v>1.7</v>
@@ -19664,7 +19664,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -20103,7 +20103,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR90" t="n">
         <v>1.1</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.55</v>
@@ -20536,7 +20536,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20975,7 +20975,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21190,10 +21190,10 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.7</v>
@@ -21629,7 +21629,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR97" t="n">
         <v>1.03</v>
@@ -22719,7 +22719,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR102" t="n">
         <v>1</v>
@@ -23152,7 +23152,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.73</v>
@@ -24024,7 +24024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.5</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR109" t="n">
         <v>2.54</v>
@@ -24463,7 +24463,7 @@
         <v>2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR110" t="n">
         <v>1.64</v>
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR111" t="n">
         <v>1.04</v>
@@ -25332,10 +25332,10 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR114" t="n">
         <v>1.41</v>
@@ -25550,10 +25550,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR115" t="n">
         <v>1.78</v>
@@ -25986,7 +25986,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.45</v>
@@ -26207,7 +26207,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR118" t="n">
         <v>1.74</v>
@@ -26422,10 +26422,10 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR119" t="n">
         <v>1.46</v>
@@ -26643,7 +26643,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR120" t="n">
         <v>1.21</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ121" t="n">
         <v>2.08</v>
@@ -27076,10 +27076,10 @@
         <v>1.14</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR122" t="n">
         <v>1.51</v>
@@ -27294,7 +27294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.73</v>
@@ -27951,7 +27951,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR126" t="n">
         <v>2.01</v>
@@ -28387,7 +28387,7 @@
         <v>2</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -28823,7 +28823,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29259,7 +29259,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR132" t="n">
         <v>1.06</v>
@@ -29477,7 +29477,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.17</v>
@@ -30128,7 +30128,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.45</v>
@@ -30346,7 +30346,7 @@
         <v>1.67</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.7</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR138" t="n">
         <v>1.37</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.5</v>
@@ -31003,7 +31003,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ140" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR140" t="n">
         <v>1.2</v>
@@ -31654,10 +31654,10 @@
         <v>1.88</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR143" t="n">
         <v>1.62</v>
@@ -31875,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR144" t="n">
         <v>1.02</v>
@@ -32093,7 +32093,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR145" t="n">
         <v>1.99</v>
@@ -32308,7 +32308,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146" t="n">
         <v>1</v>
@@ -32744,7 +32744,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.27</v>
@@ -32965,7 +32965,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR149" t="n">
         <v>1.61</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ150" t="n">
         <v>1</v>
@@ -33837,7 +33837,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR153" t="n">
         <v>1.42</v>
@@ -34052,10 +34052,10 @@
         <v>0.43</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR154" t="n">
         <v>1.57</v>
@@ -34270,7 +34270,7 @@
         <v>0.43</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.55</v>
@@ -34491,7 +34491,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR156" t="n">
         <v>1.15</v>
@@ -34709,7 +34709,7 @@
         <v>3</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR157" t="n">
         <v>2.24</v>
@@ -35142,7 +35142,7 @@
         <v>0.57</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.45</v>
@@ -35360,7 +35360,7 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.73</v>
@@ -35578,10 +35578,10 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR161" t="n">
         <v>1.35</v>
@@ -35799,7 +35799,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR162" t="n">
         <v>1.72</v>
@@ -36014,10 +36014,10 @@
         <v>0.5</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR163" t="n">
         <v>1.43</v>
@@ -37761,7 +37761,7 @@
         <v>2</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR171" t="n">
         <v>1.78</v>
@@ -37976,7 +37976,7 @@
         <v>1.57</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.5</v>
@@ -38197,7 +38197,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR173" t="n">
         <v>1.81</v>
@@ -38412,7 +38412,7 @@
         <v>0.38</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.55</v>
@@ -39284,10 +39284,10 @@
         <v>0.89</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR178" t="n">
         <v>1.37</v>
@@ -39505,7 +39505,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR179" t="n">
         <v>2.35</v>
@@ -39723,7 +39723,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -39938,7 +39938,7 @@
         <v>0.5</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.45</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.27</v>
@@ -40595,7 +40595,7 @@
         <v>1</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR184" t="n">
         <v>1.1</v>
@@ -41031,7 +41031,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR186" t="n">
         <v>1.17</v>
@@ -41246,10 +41246,10 @@
         <v>0.38</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR187" t="n">
         <v>1.47</v>
@@ -41467,7 +41467,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR188" t="n">
         <v>1.76</v>
@@ -41900,7 +41900,7 @@
         <v>1.88</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.73</v>
@@ -42121,7 +42121,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42339,7 +42339,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR192" t="n">
         <v>2.35</v>
@@ -43426,7 +43426,7 @@
         <v>0.44</v>
       </c>
       <c r="AP197" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ197" t="n">
         <v>0.64</v>
@@ -43644,7 +43644,7 @@
         <v>1</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.83</v>
@@ -43862,7 +43862,7 @@
         <v>2.2</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ199" t="n">
         <v>2.08</v>
@@ -44301,7 +44301,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR201" t="n">
         <v>1.11</v>
@@ -44519,7 +44519,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR202" t="n">
         <v>1.73</v>
@@ -44734,7 +44734,7 @@
         <v>1.67</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.5</v>
@@ -44952,7 +44952,7 @@
         <v>0.8</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.73</v>
@@ -45173,7 +45173,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ205" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR205" t="n">
         <v>1.79</v>
@@ -45388,10 +45388,10 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR206" t="n">
         <v>1.92</v>
@@ -45824,7 +45824,7 @@
         <v>2</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.73</v>
@@ -46042,10 +46042,10 @@
         <v>1.3</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR209" t="n">
         <v>1.38</v>
@@ -46263,7 +46263,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR210" t="n">
         <v>1.16</v>
@@ -46699,7 +46699,7 @@
         <v>1</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR212" t="n">
         <v>1.13</v>
@@ -48222,7 +48222,7 @@
         <v>1</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ219" t="n">
         <v>1</v>
@@ -48519,6 +48519,1750 @@
       </c>
       <c r="BP220" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>8200769</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>46059.70833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>23</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['35', '79']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X221" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>8200738</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>46060.51041666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>3</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['29', '61', '83']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R222" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S222" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U222" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V222" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X222" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>8200600</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>46060.70833333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>3</v>
+      </c>
+      <c r="L223" t="n">
+        <v>3</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>4</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['24', '37', '89']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S223" t="n">
+        <v>5</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U223" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X223" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8200599</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>46061.41666666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['53', '72']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S224" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U224" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V224" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X224" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>8200449</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>46061.51041666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+      <c r="M225" t="n">
+        <v>2</v>
+      </c>
+      <c r="N225" t="n">
+        <v>6</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['29', '34', '86', '90+9']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['81', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S225" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X225" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>8200601</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>46061.51041666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S226" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X226" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8200780</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>46061.60416666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S227" t="n">
+        <v>5</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X227" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8200782</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>46061.70833333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['65', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X228" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.45</v>
@@ -4189,7 +4189,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.08</v>
@@ -10293,7 +10293,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR45" t="n">
         <v>2.18</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.67</v>
@@ -13999,7 +13999,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR62" t="n">
         <v>1.21</v>
@@ -14868,7 +14868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.73</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -19010,7 +19010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.33</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.83</v>
@@ -24027,7 +24027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR108" t="n">
         <v>1.45</v>
@@ -27948,7 +27948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.42</v>
@@ -30785,7 +30785,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR139" t="n">
         <v>1.41</v>
@@ -32090,7 +32090,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.17</v>
@@ -34927,7 +34927,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR158" t="n">
         <v>1.15</v>
@@ -37322,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ169" t="n">
         <v>2.08</v>
@@ -37979,7 +37979,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR172" t="n">
         <v>1.57</v>
@@ -40810,7 +40810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.64</v>
@@ -41685,7 +41685,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR189" t="n">
         <v>1.15</v>
@@ -44737,7 +44737,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR203" t="n">
         <v>1.49</v>
@@ -45170,7 +45170,7 @@
         <v>2.1</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ205" t="n">
         <v>2.25</v>
@@ -50263,6 +50263,224 @@
       </c>
       <c r="BP228" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8200773</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>46062.70833333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>23</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>4</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>5</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['35', '41', '50', '55']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X229" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.33</v>
@@ -2881,7 +2881,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.92</v>
@@ -7241,7 +7241,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -10729,7 +10729,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR47" t="n">
         <v>2.48</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.45</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.73</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -19231,7 +19231,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR86" t="n">
         <v>1.7</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.73</v>
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR111" t="n">
         <v>1.04</v>
@@ -24896,7 +24896,7 @@
         <v>0.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25335,7 +25335,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR114" t="n">
         <v>1.41</v>
@@ -28820,7 +28820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.25</v>
@@ -29477,7 +29477,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133" t="n">
         <v>1.17</v>
@@ -32962,7 +32962,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.08</v>
@@ -34709,7 +34709,7 @@
         <v>3</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR157" t="n">
         <v>2.24</v>
@@ -37540,7 +37540,7 @@
         <v>1.11</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.83</v>
@@ -38848,7 +38848,7 @@
         <v>1.86</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.7</v>
@@ -41031,7 +41031,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR186" t="n">
         <v>1.17</v>
@@ -44080,7 +44080,7 @@
         <v>1.11</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ200" t="n">
         <v>1</v>
@@ -44519,7 +44519,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR202" t="n">
         <v>1.73</v>
@@ -47350,7 +47350,7 @@
         <v>2</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ215" t="n">
         <v>2.08</v>
@@ -48661,7 +48661,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR221" t="n">
         <v>1.33</v>
@@ -50481,6 +50481,224 @@
       </c>
       <c r="BP229" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>8200602</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>46066.70833333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>24</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -49398,7 +49398,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>8200449</v>
+        <v>8200601</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -49418,197 +49418,197 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Levante UD</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="I225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S225" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X225" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV225" t="n">
         <v>6</v>
       </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>['29', '34', '86', '90+9']</t>
-        </is>
-      </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>['81', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q225" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R225" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="S225" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="T225" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U225" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="V225" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W225" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X225" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y225" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z225" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA225" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AB225" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="AC225" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD225" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="AE225" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF225" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AG225" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH225" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI225" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AJ225" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK225" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AL225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM225" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AN225" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO225" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP225" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ225" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR225" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AS225" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT225" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AU225" t="n">
+      <c r="AW225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB225" t="n">
         <v>7</v>
       </c>
-      <c r="AV225" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW225" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX225" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY225" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ225" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA225" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB225" t="n">
-        <v>3</v>
-      </c>
       <c r="BC225" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD225" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="BE225" t="n">
-        <v>11</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF225" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="BG225" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BH225" t="n">
-        <v>3.88</v>
+        <v>2.95</v>
       </c>
       <c r="BI225" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="BJ225" t="n">
-        <v>2.83</v>
+        <v>2.26</v>
       </c>
       <c r="BK225" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="BL225" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="BM225" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BN225" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="BO225" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="BP225" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="226">
@@ -49616,7 +49616,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>8200601</v>
+        <v>8200449</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -49636,197 +49636,197 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Levante UD</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L226" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N226" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>['29', '34', '86', '90+9']</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['81', '90+4']</t>
         </is>
       </c>
       <c r="Q226" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R226" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="S226" t="n">
-        <v>3.9</v>
+        <v>4.94</v>
       </c>
       <c r="T226" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="U226" t="n">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="V226" t="n">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="W226" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X226" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y226" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z226" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="AA226" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB226" t="n">
-        <v>3.35</v>
+        <v>5.15</v>
       </c>
       <c r="AC226" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD226" t="n">
-        <v>8.5</v>
+        <v>11.3</v>
       </c>
       <c r="AE226" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AF226" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="AG226" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AH226" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AI226" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AJ226" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AK226" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AL226" t="n">
         <v>0</v>
       </c>
       <c r="AM226" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
       <c r="AN226" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AO226" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AR226" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT226" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="AU226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV226" t="n">
         <v>3</v>
       </c>
-      <c r="AV226" t="n">
+      <c r="AW226" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ226" t="n">
         <v>6</v>
       </c>
-      <c r="AW226" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX226" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY226" t="n">
+      <c r="BA226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE226" t="n">
         <v>11</v>
       </c>
-      <c r="AZ226" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA226" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB226" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC226" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD226" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BE226" t="n">
-        <v>8.699999999999999</v>
-      </c>
       <c r="BF226" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="BG226" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH226" t="n">
-        <v>2.95</v>
+        <v>3.88</v>
       </c>
       <c r="BI226" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="BJ226" t="n">
-        <v>2.26</v>
+        <v>2.83</v>
       </c>
       <c r="BK226" t="n">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="BL226" t="n">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="BM226" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BN226" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="BO226" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="BP226" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="227">

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4" t="n">
         <v>2.08</v>
@@ -1573,7 +1573,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.6899999999999999</v>
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR13" t="n">
         <v>0.5</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ15" t="n">
         <v>2.08</v>
@@ -3971,7 +3971,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.25</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.17</v>
@@ -5279,7 +5279,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR22" t="n">
         <v>1.42</v>
@@ -5933,7 +5933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR25" t="n">
         <v>1.71</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR26" t="n">
         <v>0.79</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.42</v>
@@ -6805,7 +6805,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR29" t="n">
         <v>1.49</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR30" t="n">
         <v>1.65</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.6899999999999999</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.08</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.36</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.45</v>
@@ -8331,7 +8331,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -8549,7 +8549,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR37" t="n">
         <v>1.77</v>
@@ -8982,10 +8982,10 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR39" t="n">
         <v>0.9399999999999999</v>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.42</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR43" t="n">
         <v>1.29</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.36</v>
@@ -10947,7 +10947,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11162,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR49" t="n">
         <v>1.46</v>
@@ -11380,10 +11380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.15</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR55" t="n">
         <v>1.24</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.25</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.13</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.08</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.92</v>
@@ -14650,10 +14650,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR65" t="n">
         <v>0.96</v>
@@ -14871,7 +14871,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR66" t="n">
         <v>2.6</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR68" t="n">
         <v>1.48</v>
@@ -15525,7 +15525,7 @@
         <v>3</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR69" t="n">
         <v>2.26</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.92</v>
@@ -16615,7 +16615,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR76" t="n">
         <v>2.07</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.08</v>
@@ -17702,10 +17702,10 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR79" t="n">
         <v>1.51</v>
@@ -18141,7 +18141,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18356,7 +18356,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.36</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.42</v>
@@ -19013,7 +19013,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR85" t="n">
         <v>2.33</v>
@@ -19449,7 +19449,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19667,7 +19667,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR88" t="n">
         <v>1.73</v>
@@ -19882,7 +19882,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.83</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.25</v>
@@ -20321,7 +20321,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -20972,7 +20972,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.36</v>
@@ -21411,7 +21411,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR96" t="n">
         <v>1.46</v>
@@ -21626,7 +21626,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.92</v>
@@ -21844,7 +21844,7 @@
         <v>2</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.08</v>
@@ -22065,7 +22065,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.24</v>
@@ -22280,10 +22280,10 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR100" t="n">
         <v>1.74</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR101" t="n">
         <v>1.54</v>
@@ -22716,7 +22716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.08</v>
@@ -23373,7 +23373,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR105" t="n">
         <v>1.56</v>
@@ -23588,10 +23588,10 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR106" t="n">
         <v>2.3</v>
@@ -23806,10 +23806,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="AP111" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.6899999999999999</v>
@@ -24899,7 +24899,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR112" t="n">
         <v>1.61</v>
@@ -25117,7 +25117,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.2</v>
@@ -25332,7 +25332,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.6899999999999999</v>
@@ -25768,10 +25768,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR116" t="n">
         <v>1.58</v>
@@ -26204,7 +26204,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ118" t="n">
         <v>2.25</v>
@@ -26425,7 +26425,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR119" t="n">
         <v>1.46</v>
@@ -26640,7 +26640,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.17</v>
@@ -27297,7 +27297,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -27515,7 +27515,7 @@
         <v>3</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR124" t="n">
         <v>2.37</v>
@@ -27733,7 +27733,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -28166,7 +28166,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.83</v>
@@ -28602,10 +28602,10 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR129" t="n">
         <v>1.08</v>
@@ -29038,7 +29038,7 @@
         <v>1.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ131" t="n">
         <v>1</v>
@@ -29256,7 +29256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.36</v>
@@ -29474,7 +29474,7 @@
         <v>0.14</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.6899999999999999</v>
@@ -29695,7 +29695,7 @@
         <v>3</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR134" t="n">
         <v>2.31</v>
@@ -29910,10 +29910,10 @@
         <v>0.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR135" t="n">
         <v>1.12</v>
@@ -30349,7 +30349,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR137" t="n">
         <v>1.5</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR138" t="n">
         <v>1.37</v>
@@ -31218,10 +31218,10 @@
         <v>0.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR141" t="n">
         <v>1.65</v>
@@ -31439,7 +31439,7 @@
         <v>3</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR142" t="n">
         <v>2.27</v>
@@ -31872,7 +31872,7 @@
         <v>0.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.42</v>
@@ -32311,7 +32311,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR146" t="n">
         <v>1.33</v>
@@ -32747,7 +32747,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -33398,7 +33398,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.83</v>
@@ -33616,10 +33616,10 @@
         <v>1.83</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR152" t="n">
         <v>2.38</v>
@@ -34273,7 +34273,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR155" t="n">
         <v>1.93</v>
@@ -34488,7 +34488,7 @@
         <v>0.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.36</v>
@@ -34924,7 +34924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.36</v>
@@ -35142,7 +35142,7 @@
         <v>0.57</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.45</v>
@@ -35363,7 +35363,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -35796,10 +35796,10 @@
         <v>1.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR162" t="n">
         <v>1.72</v>
@@ -36232,10 +36232,10 @@
         <v>2</v>
       </c>
       <c r="AP164" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR164" t="n">
         <v>1.08</v>
@@ -36450,10 +36450,10 @@
         <v>0.75</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR165" t="n">
         <v>1.13</v>
@@ -36671,7 +36671,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR166" t="n">
         <v>1.44</v>
@@ -36886,7 +36886,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -37107,7 +37107,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.17</v>
@@ -38415,7 +38415,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR174" t="n">
         <v>1.31</v>
@@ -38633,7 +38633,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR175" t="n">
         <v>1.5</v>
@@ -38851,7 +38851,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR176" t="n">
         <v>1.62</v>
@@ -39066,7 +39066,7 @@
         <v>2.11</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ177" t="n">
         <v>2.08</v>
@@ -39284,7 +39284,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.92</v>
@@ -39502,10 +39502,10 @@
         <v>1.5</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR179" t="n">
         <v>2.35</v>
@@ -39720,7 +39720,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.08</v>
@@ -40159,7 +40159,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR182" t="n">
         <v>1.56</v>
@@ -40374,10 +40374,10 @@
         <v>0.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR183" t="n">
         <v>1.14</v>
@@ -40592,10 +40592,10 @@
         <v>1.33</v>
       </c>
       <c r="AP184" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR184" t="n">
         <v>1.1</v>
@@ -40813,7 +40813,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -41464,7 +41464,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.42</v>
@@ -41682,7 +41682,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.36</v>
@@ -41900,10 +41900,10 @@
         <v>1.88</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR190" t="n">
         <v>1.43</v>
@@ -42118,7 +42118,7 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.08</v>
@@ -42336,7 +42336,7 @@
         <v>1.1</v>
       </c>
       <c r="AP192" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.92</v>
@@ -42554,10 +42554,10 @@
         <v>0.89</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR193" t="n">
         <v>1.21</v>
@@ -42993,7 +42993,7 @@
         <v>2</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR195" t="n">
         <v>1.8</v>
@@ -43208,10 +43208,10 @@
         <v>0.33</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR196" t="n">
         <v>1.1</v>
@@ -43429,7 +43429,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR197" t="n">
         <v>1.87</v>
@@ -44298,7 +44298,7 @@
         <v>0.44</v>
       </c>
       <c r="AP201" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.36</v>
@@ -44516,7 +44516,7 @@
         <v>0.2</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ202" t="n">
         <v>0.6899999999999999</v>
@@ -44952,10 +44952,10 @@
         <v>0.8</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR204" t="n">
         <v>1.38</v>
@@ -45827,7 +45827,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR208" t="n">
         <v>1.57</v>
@@ -46045,7 +46045,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR209" t="n">
         <v>1.38</v>
@@ -46478,10 +46478,10 @@
         <v>0.4</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR211" t="n">
         <v>1.48</v>
@@ -46696,7 +46696,7 @@
         <v>1.2</v>
       </c>
       <c r="AP212" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.08</v>
@@ -46917,7 +46917,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR213" t="n">
         <v>1.48</v>
@@ -47132,10 +47132,10 @@
         <v>1.3</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR214" t="n">
         <v>1.27</v>
@@ -47568,7 +47568,7 @@
         <v>0.91</v>
       </c>
       <c r="AP216" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.83</v>
@@ -47789,7 +47789,7 @@
         <v>2</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR217" t="n">
         <v>1.8</v>
@@ -48004,10 +48004,10 @@
         <v>1.8</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR218" t="n">
         <v>1.15</v>
@@ -48225,7 +48225,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR219" t="n">
         <v>1.61</v>
@@ -48440,7 +48440,7 @@
         <v>1.1</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
@@ -49530,7 +49530,7 @@
         <v>1.09</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.08</v>
@@ -49969,7 +49969,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR227" t="n">
         <v>1.95</v>
@@ -50641,13 +50641,13 @@
         <v>2</v>
       </c>
       <c r="AW230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX230" t="n">
         <v>4</v>
       </c>
       <c r="AY230" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ230" t="n">
         <v>6</v>
@@ -50699,6 +50699,1750 @@
       </c>
       <c r="BP230" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>8200604</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>46067.41666666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>24</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>4</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['66', '86']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['38', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X231" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8200603</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>46067.51041666666</v>
+      </c>
+      <c r="F232" t="n">
+        <v>24</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['41', '53']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S232" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X232" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>8200605</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>46067.60416666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>24</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2</v>
+      </c>
+      <c r="S233" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X233" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8200609</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>46067.70833333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>24</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>3</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>4</v>
+      </c>
+      <c r="L234" t="n">
+        <v>4</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>5</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['5', '25', '31', '48']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S234" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U234" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>8200786</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>46068.41666666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>24</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>2</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['58', '71']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2</v>
+      </c>
+      <c r="S235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X235" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>8200608</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>46068.51041666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>24</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['40', '45', '76']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S236" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X236" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8200606</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>46068.60416666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>24</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['64', '84']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X237" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>8200607</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>46068.70833333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>24</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['18', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S238" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X238" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.83</v>
@@ -1355,7 +1355,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.92</v>
@@ -13781,7 +13781,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR61" t="n">
         <v>0.82</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.36</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.75</v>
@@ -17487,7 +17487,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR78" t="n">
         <v>1.38</v>
@@ -20754,7 +20754,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.45</v>
@@ -21847,7 +21847,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR98" t="n">
         <v>2.25</v>
@@ -25114,7 +25114,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.67</v>
@@ -26861,7 +26861,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR121" t="n">
         <v>1.51</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140" t="n">
         <v>2.25</v>
@@ -32529,7 +32529,7 @@
         <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR147" t="n">
         <v>1.77</v>
@@ -37104,7 +37104,7 @@
         <v>1.13</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.17</v>
@@ -37325,7 +37325,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR169" t="n">
         <v>1.9</v>
@@ -39069,7 +39069,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR177" t="n">
         <v>1.48</v>
@@ -41028,7 +41028,7 @@
         <v>0.22</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ186" t="n">
         <v>0.6899999999999999</v>
@@ -43865,7 +43865,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ199" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR199" t="n">
         <v>1.62</v>
@@ -46260,7 +46260,7 @@
         <v>1</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.17</v>
@@ -47353,7 +47353,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ215" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR215" t="n">
         <v>1.61</v>
@@ -51946,13 +51946,13 @@
         <v>9</v>
       </c>
       <c r="AV236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW236" t="n">
         <v>4</v>
       </c>
       <c r="AX236" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY236" t="n">
         <v>13</v>
@@ -52443,6 +52443,224 @@
       </c>
       <c r="BP238" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>8200731</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>46069.70833333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>24</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>3</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['61', '86']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>6</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X239" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP239"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.67</v>
@@ -3535,7 +3535,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.92</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.75</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.36</v>
@@ -4625,7 +4625,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR20" t="n">
         <v>1.44</v>
@@ -6805,7 +6805,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR29" t="n">
         <v>1.49</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.92</v>
@@ -7677,7 +7677,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -7895,7 +7895,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR35" t="n">
         <v>1.77</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.67</v>
@@ -8549,7 +8549,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR37" t="n">
         <v>1.77</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.46</v>
@@ -9200,10 +9200,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.92</v>
@@ -11601,7 +11601,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.36</v>
@@ -12252,7 +12252,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.08</v>
@@ -12473,7 +12473,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR55" t="n">
         <v>1.24</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR56" t="n">
         <v>0.84</v>
@@ -13127,7 +13127,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR58" t="n">
         <v>1.45</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.42</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -14435,7 +14435,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR64" t="n">
         <v>1.74</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.6899999999999999</v>
@@ -15961,7 +15961,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.35</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.17</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.42</v>
@@ -17051,7 +17051,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR76" t="n">
         <v>2.07</v>
@@ -17269,7 +17269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.2</v>
@@ -17920,10 +17920,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR80" t="n">
         <v>1.96</v>
@@ -19882,10 +19882,10 @@
         <v>1.2</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR89" t="n">
         <v>0.9</v>
@@ -20103,7 +20103,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR90" t="n">
         <v>1.1</v>
@@ -20536,7 +20536,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.15</v>
@@ -20975,7 +20975,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.17</v>
@@ -21411,7 +21411,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.46</v>
@@ -22062,7 +22062,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.67</v>
@@ -22498,7 +22498,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.17</v>
@@ -22937,7 +22937,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR103" t="n">
         <v>2.05</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.92</v>
@@ -23806,7 +23806,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.67</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR109" t="n">
         <v>2.54</v>
@@ -24460,7 +24460,7 @@
         <v>0.6</v>
       </c>
       <c r="AP110" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.42</v>
@@ -25771,7 +25771,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR116" t="n">
         <v>1.58</v>
@@ -25986,10 +25986,10 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -26207,7 +26207,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR118" t="n">
         <v>1.74</v>
@@ -27730,7 +27730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.92</v>
@@ -28169,7 +28169,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR127" t="n">
         <v>1.01</v>
@@ -28384,7 +28384,7 @@
         <v>0.4</v>
       </c>
       <c r="AP128" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.08</v>
@@ -28823,7 +28823,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29259,7 +29259,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR132" t="n">
         <v>1.06</v>
@@ -29910,7 +29910,7 @@
         <v>0.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.92</v>
@@ -30131,7 +30131,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR136" t="n">
         <v>1.95</v>
@@ -30346,10 +30346,10 @@
         <v>1.67</v>
       </c>
       <c r="AP137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ137" t="n">
         <v>1.67</v>
-      </c>
-      <c r="AQ137" t="n">
-        <v>1.55</v>
       </c>
       <c r="AR137" t="n">
         <v>1.5</v>
@@ -31003,7 +31003,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ140" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR140" t="n">
         <v>1.2</v>
@@ -31654,10 +31654,10 @@
         <v>1.88</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR143" t="n">
         <v>1.62</v>
@@ -32526,7 +32526,7 @@
         <v>1.86</v>
       </c>
       <c r="AP147" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.92</v>
@@ -32744,7 +32744,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.17</v>
@@ -33401,7 +33401,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR151" t="n">
         <v>1.53</v>
@@ -33834,7 +33834,7 @@
         <v>1</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.92</v>
@@ -34052,7 +34052,7 @@
         <v>0.43</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.08</v>
@@ -34491,7 +34491,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR156" t="n">
         <v>1.15</v>
@@ -35145,7 +35145,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR159" t="n">
         <v>1.34</v>
@@ -35581,7 +35581,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ161" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR161" t="n">
         <v>1.35</v>
@@ -36450,7 +36450,7 @@
         <v>0.75</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.92</v>
@@ -36668,7 +36668,7 @@
         <v>0.57</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.67</v>
@@ -37543,7 +37543,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR170" t="n">
         <v>1.59</v>
@@ -37758,7 +37758,7 @@
         <v>1.13</v>
       </c>
       <c r="AP171" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.17</v>
@@ -37976,7 +37976,7 @@
         <v>1.57</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.36</v>
@@ -38630,7 +38630,7 @@
         <v>0.88</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.92</v>
@@ -38851,7 +38851,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR176" t="n">
         <v>1.62</v>
@@ -39941,7 +39941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR181" t="n">
         <v>1.3</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.17</v>
@@ -41249,7 +41249,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR187" t="n">
         <v>1.47</v>
@@ -41682,7 +41682,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.36</v>
@@ -42772,10 +42772,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR194" t="n">
         <v>1.46</v>
@@ -42990,10 +42990,10 @@
         <v>2</v>
       </c>
       <c r="AP195" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR195" t="n">
         <v>1.8</v>
@@ -43647,7 +43647,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR198" t="n">
         <v>1.32</v>
@@ -43862,7 +43862,7 @@
         <v>2.2</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.92</v>
@@ -44298,10 +44298,10 @@
         <v>0.44</v>
       </c>
       <c r="AP201" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR201" t="n">
         <v>1.11</v>
@@ -45173,7 +45173,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ205" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR205" t="n">
         <v>1.79</v>
@@ -45609,7 +45609,7 @@
         <v>3</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR207" t="n">
         <v>2.29</v>
@@ -45824,7 +45824,7 @@
         <v>2</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.67</v>
@@ -46914,10 +46914,10 @@
         <v>1.78</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR213" t="n">
         <v>1.48</v>
@@ -47132,7 +47132,7 @@
         <v>1.3</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.17</v>
@@ -47571,7 +47571,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR216" t="n">
         <v>2.39</v>
@@ -47786,7 +47786,7 @@
         <v>0.6</v>
       </c>
       <c r="AP217" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ217" t="n">
         <v>0.75</v>
@@ -48222,7 +48222,7 @@
         <v>1</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.92</v>
@@ -49094,10 +49094,10 @@
         <v>0.4</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR223" t="n">
         <v>1.53</v>
@@ -49748,7 +49748,7 @@
         <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.92</v>
@@ -50187,7 +50187,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ228" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR228" t="n">
         <v>1.47</v>
@@ -51059,7 +51059,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR232" t="n">
         <v>1.13</v>
@@ -52146,7 +52146,7 @@
         <v>0.55</v>
       </c>
       <c r="AP237" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ237" t="n">
         <v>0.75</v>
@@ -52661,6 +52661,1096 @@
       </c>
       <c r="BP239" t="n">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>8200745</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>46071.66666666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>16</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X240" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>8200610</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>46073.70833333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>25</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>3</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['64', '89']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S241" t="n">
+        <v>5</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X241" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>8200616</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>46074.41666666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>25</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>3</v>
+      </c>
+      <c r="M242" t="n">
+        <v>3</v>
+      </c>
+      <c r="N242" t="n">
+        <v>6</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['64', '87', '90']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['50', '52', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S242" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X242" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>8200615</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>46074.51041666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>25</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R243" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S243" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U243" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X243" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8200614</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>46074.60416666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>25</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>3</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['38', '90']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S244" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U244" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V244" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X244" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.33</v>
@@ -4189,7 +4189,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.67</v>
@@ -10293,7 +10293,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR45" t="n">
         <v>2.18</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.85</v>
@@ -13999,7 +13999,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR62" t="n">
         <v>1.21</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.08</v>
@@ -18359,7 +18359,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.6899999999999999</v>
@@ -23152,7 +23152,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -24027,7 +24027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR108" t="n">
         <v>1.45</v>
@@ -25550,7 +25550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.92</v>
@@ -30128,7 +30128,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.5</v>
@@ -30785,7 +30785,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR139" t="n">
         <v>1.41</v>
@@ -34270,7 +34270,7 @@
         <v>0.43</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.75</v>
@@ -34927,7 +34927,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR158" t="n">
         <v>1.15</v>
@@ -37979,7 +37979,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR172" t="n">
         <v>1.57</v>
@@ -41685,7 +41685,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR189" t="n">
         <v>1.15</v>
@@ -43426,7 +43426,7 @@
         <v>0.44</v>
       </c>
       <c r="AP197" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ197" t="n">
         <v>0.67</v>
@@ -44737,7 +44737,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR203" t="n">
         <v>1.49</v>
@@ -45388,7 +45388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.42</v>
@@ -49966,7 +49966,7 @@
         <v>1.18</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.46</v>
@@ -50405,7 +50405,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR229" t="n">
         <v>1.7</v>
@@ -53751,6 +53751,224 @@
       </c>
       <c r="BP244" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8200612</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>46074.70833333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>25</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>4</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>6</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['21', '49', '58', '72']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['6', '80']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>2</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S245" t="n">
+        <v>6</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X245" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.5</v>
@@ -1791,7 +1791,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.17</v>
@@ -2227,7 +2227,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.08</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.46</v>
@@ -5497,7 +5497,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR23" t="n">
         <v>0.96</v>
@@ -6369,7 +6369,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR27" t="n">
         <v>0.86</v>
@@ -6587,7 +6587,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR28" t="n">
         <v>2.14</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.67</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.5</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.08</v>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -9639,7 +9639,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -10075,7 +10075,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR46" t="n">
         <v>1.19</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.6899999999999999</v>
@@ -12037,7 +12037,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53" t="n">
         <v>1.15</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.67</v>
@@ -13345,7 +13345,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR59" t="n">
         <v>2</v>
@@ -14214,10 +14214,10 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR63" t="n">
         <v>0.96</v>
@@ -14868,7 +14868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.92</v>
@@ -15089,7 +15089,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR67" t="n">
         <v>1.6</v>
@@ -16397,7 +16397,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR73" t="n">
         <v>0.8</v>
@@ -16615,7 +16615,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -16833,7 +16833,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR75" t="n">
         <v>1.56</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.17</v>
@@ -18577,7 +18577,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR83" t="n">
         <v>1.42</v>
@@ -19010,7 +19010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.46</v>
@@ -19664,7 +19664,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.92</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.08</v>
@@ -20321,7 +20321,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -20539,7 +20539,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR92" t="n">
         <v>1.75</v>
@@ -21629,7 +21629,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR97" t="n">
         <v>1.03</v>
@@ -22716,7 +22716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.08</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.85</v>
@@ -23155,7 +23155,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR104" t="n">
         <v>1.79</v>
@@ -23591,7 +23591,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR106" t="n">
         <v>2.3</v>
@@ -24463,7 +24463,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR110" t="n">
         <v>1.64</v>
@@ -25553,7 +25553,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR115" t="n">
         <v>1.78</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.92</v>
@@ -27079,7 +27079,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR122" t="n">
         <v>1.51</v>
@@ -27948,10 +27948,10 @@
         <v>0.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR126" t="n">
         <v>2.01</v>
@@ -28602,7 +28602,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.17</v>
@@ -29041,7 +29041,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR131" t="n">
         <v>1.6</v>
@@ -29256,7 +29256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.33</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.25</v>
@@ -31221,7 +31221,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR141" t="n">
         <v>1.65</v>
@@ -31875,7 +31875,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR144" t="n">
         <v>1.02</v>
@@ -32090,7 +32090,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.17</v>
@@ -33183,7 +33183,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR150" t="n">
         <v>1.47</v>
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR153" t="n">
         <v>1.42</v>
@@ -34273,7 +34273,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR155" t="n">
         <v>1.93</v>
@@ -34924,7 +34924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.25</v>
@@ -35360,7 +35360,7 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.92</v>
@@ -36017,7 +36017,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR163" t="n">
         <v>1.43</v>
@@ -36889,7 +36889,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR167" t="n">
         <v>2.39</v>
@@ -37322,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.92</v>
@@ -38412,10 +38412,10 @@
         <v>0.38</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR174" t="n">
         <v>1.31</v>
@@ -39287,7 +39287,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR178" t="n">
         <v>1.37</v>
@@ -40374,7 +40374,7 @@
         <v>0.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.92</v>
@@ -40810,7 +40810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.67</v>
@@ -41467,7 +41467,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR188" t="n">
         <v>1.76</v>
@@ -42339,7 +42339,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR192" t="n">
         <v>2.35</v>
@@ -43208,10 +43208,10 @@
         <v>0.33</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR196" t="n">
         <v>1.1</v>
@@ -43644,7 +43644,7 @@
         <v>1</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.85</v>
@@ -44083,7 +44083,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR200" t="n">
         <v>1.65</v>
@@ -45170,7 +45170,7 @@
         <v>2.1</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ205" t="n">
         <v>2.08</v>
@@ -45391,7 +45391,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR206" t="n">
         <v>1.92</v>
@@ -47789,7 +47789,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR217" t="n">
         <v>1.8</v>
@@ -48004,7 +48004,7 @@
         <v>1.8</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.67</v>
@@ -48443,7 +48443,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR220" t="n">
         <v>1.28</v>
@@ -48658,7 +48658,7 @@
         <v>0.45</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ221" t="n">
         <v>0.6899999999999999</v>
@@ -48879,7 +48879,7 @@
         <v>3</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR222" t="n">
         <v>2.25</v>
@@ -49751,7 +49751,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR226" t="n">
         <v>1.65</v>
@@ -50402,7 +50402,7 @@
         <v>1.5</v>
       </c>
       <c r="AP229" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.25</v>
@@ -51056,7 +51056,7 @@
         <v>1.7</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.67</v>
@@ -52149,7 +52149,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ237" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR237" t="n">
         <v>1.24</v>
@@ -53687,31 +53687,31 @@
         <v>3.5</v>
       </c>
       <c r="AU244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV244" t="n">
         <v>5</v>
       </c>
       <c r="AW244" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX244" t="n">
         <v>10</v>
       </c>
-      <c r="AX244" t="n">
-        <v>9</v>
-      </c>
       <c r="AY244" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ244" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB244" t="n">
         <v>7</v>
       </c>
       <c r="BC244" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD244" t="n">
         <v>3.2</v>
@@ -53969,6 +53969,878 @@
       </c>
       <c r="BP245" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>8200613</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>46075.41666666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>25</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R246" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S246" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X246" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8200526</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>46075.51041666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>25</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>2</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2</v>
+      </c>
+      <c r="L247" t="n">
+        <v>3</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>3</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['4', '32', '81']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R247" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S247" t="n">
+        <v>10</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U247" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="V247" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W247" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>31</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8200611</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>46075.60416666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>25</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['85', '90+5']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2</v>
+      </c>
+      <c r="S248" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V248" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X248" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL248" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8200787</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>46075.70833333334</v>
+      </c>
+      <c r="F249" t="n">
+        <v>25</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>2</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="n">
+        <v>3</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="n">
+        <v>3</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['31', '45+6']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S249" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U249" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V249" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X249" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.85</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.17</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.17</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.33</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.6899999999999999</v>
@@ -24024,7 +24024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.25</v>
@@ -27294,7 +27294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.67</v>
@@ -32308,7 +32308,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.92</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ161" t="n">
         <v>2.08</v>
@@ -39938,7 +39938,7 @@
         <v>0.5</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.5</v>
@@ -46042,7 +46042,7 @@
         <v>1.3</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.46</v>
@@ -49312,7 +49312,7 @@
         <v>1</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.17</v>
@@ -54841,6 +54841,224 @@
       </c>
       <c r="BP249" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8200760</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>46076.70833333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>25</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2</v>
+      </c>
+      <c r="M250" t="n">
+        <v>2</v>
+      </c>
+      <c r="N250" t="n">
+        <v>4</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['5', '89']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['31', '73']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R250" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S250" t="n">
+        <v>4</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X250" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN250" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain La Liga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP250"/>
+  <dimension ref="A1:BP254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.92</v>
@@ -1573,7 +1573,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.67</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.92</v>
@@ -6151,7 +6151,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR26" t="n">
         <v>0.79</v>
@@ -6805,7 +6805,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR29" t="n">
         <v>1.49</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.92</v>
@@ -8331,7 +8331,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -8549,7 +8549,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR37" t="n">
         <v>1.77</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.46</v>
@@ -9857,7 +9857,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR43" t="n">
         <v>1.29</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.67</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.17</v>
@@ -12473,7 +12473,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR55" t="n">
         <v>1.24</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.08</v>
@@ -12909,7 +12909,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR57" t="n">
         <v>1.13</v>
@@ -14650,10 +14650,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR65" t="n">
         <v>0.96</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.17</v>
@@ -15525,7 +15525,7 @@
         <v>3</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR69" t="n">
         <v>2.26</v>
@@ -17051,7 +17051,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR76" t="n">
         <v>2.07</v>
@@ -19667,7 +19667,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR88" t="n">
         <v>1.73</v>
@@ -19882,7 +19882,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.85</v>
@@ -21411,7 +21411,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR96" t="n">
         <v>1.46</v>
@@ -21626,7 +21626,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.85</v>
@@ -22280,10 +22280,10 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR100" t="n">
         <v>1.74</v>
@@ -23806,7 +23806,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.67</v>
@@ -24899,7 +24899,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR112" t="n">
         <v>1.61</v>
@@ -25117,7 +25117,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR113" t="n">
         <v>1.2</v>
@@ -25771,7 +25771,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR116" t="n">
         <v>1.58</v>
@@ -26204,7 +26204,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118" t="n">
         <v>2.08</v>
@@ -26640,7 +26640,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.17</v>
@@ -27733,7 +27733,7 @@
         <v>2</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -29474,7 +29474,7 @@
         <v>0.14</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.6899999999999999</v>
@@ -29695,7 +29695,7 @@
         <v>3</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR134" t="n">
         <v>2.31</v>
@@ -29910,7 +29910,7 @@
         <v>0.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.92</v>
@@ -30349,7 +30349,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR137" t="n">
         <v>1.5</v>
@@ -31218,7 +31218,7 @@
         <v>0.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.6899999999999999</v>
@@ -32311,7 +32311,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR146" t="n">
         <v>1.33</v>
@@ -34488,7 +34488,7 @@
         <v>0.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.33</v>
@@ -35796,7 +35796,7 @@
         <v>1.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.46</v>
@@ -36450,10 +36450,10 @@
         <v>0.75</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR165" t="n">
         <v>1.13</v>
@@ -36671,7 +36671,7 @@
         <v>2</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR166" t="n">
         <v>1.44</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.17</v>
@@ -38851,7 +38851,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR176" t="n">
         <v>1.62</v>
@@ -39720,7 +39720,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.08</v>
@@ -40377,7 +40377,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR183" t="n">
         <v>1.14</v>
@@ -40813,7 +40813,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -41464,7 +41464,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.38</v>
@@ -41682,7 +41682,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.25</v>
@@ -42554,7 +42554,7 @@
         <v>0.89</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.92</v>
@@ -42993,7 +42993,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR195" t="n">
         <v>1.8</v>
@@ -43429,7 +43429,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR197" t="n">
         <v>1.87</v>
@@ -44298,7 +44298,7 @@
         <v>0.44</v>
       </c>
       <c r="AP201" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.33</v>
@@ -44516,7 +44516,7 @@
         <v>0.2</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ202" t="n">
         <v>0.6899999999999999</v>
@@ -46481,7 +46481,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR211" t="n">
         <v>1.48</v>
@@ -46917,7 +46917,7 @@
         <v>2</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR213" t="n">
         <v>1.48</v>
@@ -47132,7 +47132,7 @@
         <v>1.3</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.17</v>
@@ -48225,7 +48225,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR219" t="n">
         <v>1.61</v>
@@ -48440,7 +48440,7 @@
         <v>1.1</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.17</v>
@@ -51059,7 +51059,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR232" t="n">
         <v>1.13</v>
@@ -51277,7 +51277,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ233" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR233" t="n">
         <v>1.37</v>
@@ -51495,7 +51495,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR234" t="n">
         <v>2.36</v>
@@ -51928,7 +51928,7 @@
         <v>1.27</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.17</v>
@@ -52146,7 +52146,7 @@
         <v>0.55</v>
       </c>
       <c r="AP237" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ237" t="n">
         <v>0.6899999999999999</v>
@@ -52364,7 +52364,7 @@
         <v>1.33</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.46</v>
@@ -52800,10 +52800,10 @@
         <v>1.55</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR240" t="n">
         <v>1.22</v>
@@ -55059,6 +55059,878 @@
       </c>
       <c r="BP250" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>8200617</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>46080.70833333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>26</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['88', '90+7']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S251" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X251" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN251" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>8200620</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>46081.41666666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>26</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S252" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V252" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X252" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8200626</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>46081.51041666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>26</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>2</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>2</v>
+      </c>
+      <c r="L253" t="n">
+        <v>4</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>5</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['28', '37', '69', '90+1']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R253" t="n">
+        <v>3</v>
+      </c>
+      <c r="S253" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U253" t="n">
+        <v>5</v>
+      </c>
+      <c r="V253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W253" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="X253" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>8200619</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>46081.60416666666</v>
+      </c>
+      <c r="F254" t="n">
+        <v>26</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S254" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X254" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL254" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO254" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP254" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
